--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2970988.394525622</v>
+        <v>-2972738.963444259</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6661238.247473564</v>
+        <v>6661238.247473558</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>261.6808958849512</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>278.3383741862054</v>
+        <v>278.3383741862055</v>
       </c>
       <c r="F11" t="n">
-        <v>303.284049855655</v>
+        <v>303.2840498556552</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>61.04131354041755</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>41.91180785883462</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>147.5306706798248</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>254.9420009865382</v>
+        <v>266.1391047924128</v>
       </c>
       <c r="Y11" t="n">
-        <v>282.6459427699972</v>
+        <v>282.6459427699973</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>62.94118776381104</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>69.11650310225944</v>
       </c>
       <c r="D12" t="n">
-        <v>43.85306967858237</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>54.05308456934456</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>41.4772165073275</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>32.26016863753165</v>
+        <v>32.26016863753173</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>40.38995403882647</v>
+        <v>72.01797202191038</v>
       </c>
       <c r="T12" t="n">
-        <v>90.56153510783025</v>
+        <v>90.56153510783034</v>
       </c>
       <c r="U12" t="n">
-        <v>122.2512708896801</v>
+        <v>122.2512708896802</v>
       </c>
       <c r="V12" t="n">
-        <v>129.2085912633689</v>
+        <v>129.208591263369</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>148.1029872748633</v>
       </c>
       <c r="X12" t="n">
-        <v>102.1809893174211</v>
+        <v>102.1809893174212</v>
       </c>
       <c r="Y12" t="n">
-        <v>133.7187178743314</v>
+        <v>102.0906998912481</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.23998429588092</v>
+        <v>76.239984295881</v>
       </c>
       <c r="C13" t="n">
-        <v>63.65482521257145</v>
+        <v>63.65482521257154</v>
       </c>
       <c r="D13" t="n">
-        <v>45.02347713215597</v>
+        <v>45.02347713215606</v>
       </c>
       <c r="E13" t="n">
-        <v>42.84196676051279</v>
+        <v>42.84196676051288</v>
       </c>
       <c r="F13" t="n">
-        <v>41.82905213687486</v>
+        <v>41.82905213687495</v>
       </c>
       <c r="G13" t="n">
-        <v>63.14868351712487</v>
+        <v>63.14868351712495</v>
       </c>
       <c r="H13" t="n">
-        <v>47.51887338264316</v>
+        <v>47.51887338264324</v>
       </c>
       <c r="I13" t="n">
-        <v>14.25854947703827</v>
+        <v>14.25854947703836</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.48336295654443</v>
+        <v>17.48336295654451</v>
       </c>
       <c r="S13" t="n">
-        <v>98.63528383939786</v>
+        <v>98.63528383939793</v>
       </c>
       <c r="T13" t="n">
-        <v>119.0114028242212</v>
+        <v>119.0114028242213</v>
       </c>
       <c r="U13" t="n">
-        <v>182.6588352910557</v>
+        <v>182.6588352910558</v>
       </c>
       <c r="V13" t="n">
-        <v>148.5456474377716</v>
+        <v>148.5456474377717</v>
       </c>
       <c r="W13" t="n">
-        <v>182.9310024505346</v>
+        <v>182.9310024505347</v>
       </c>
       <c r="X13" t="n">
-        <v>122.1176595029808</v>
+        <v>122.1176595029809</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.9926574660384</v>
+        <v>114.9926574660385</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>279.1418457774243</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>251.0910457346266</v>
+        <v>251.0910457346267</v>
       </c>
       <c r="E14" t="n">
-        <v>278.3383741862054</v>
+        <v>278.3383741862055</v>
       </c>
       <c r="F14" t="n">
-        <v>303.284049855655</v>
+        <v>303.2840498556552</v>
       </c>
       <c r="G14" t="n">
-        <v>36.90265343625726</v>
+        <v>308.9234123546365</v>
       </c>
       <c r="H14" t="n">
-        <v>207.3370702978283</v>
+        <v>34.53072809383579</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.91180785883456</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>107.3023197792037</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>147.5306706798247</v>
+        <v>147.5306706798248</v>
       </c>
       <c r="V14" t="n">
-        <v>224.1602625840785</v>
+        <v>224.1602625840786</v>
       </c>
       <c r="W14" t="n">
-        <v>245.6489728313566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>266.1391047924126</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>282.6459427699973</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>59.93613368209938</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.04962311002271</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.563150089057089</v>
+        <v>2.949370482149988</v>
       </c>
       <c r="S15" t="n">
-        <v>40.38995403882647</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T15" t="n">
-        <v>90.56153510783025</v>
+        <v>90.56153510783034</v>
       </c>
       <c r="U15" t="n">
         <v>225.8432667757365</v>
@@ -1746,13 +1746,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>148.1029872748633</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>102.1809893174212</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>102.0906998912481</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.23998429588092</v>
+        <v>76.239984295881</v>
       </c>
       <c r="C16" t="n">
-        <v>63.65482521257145</v>
+        <v>63.65482521257154</v>
       </c>
       <c r="D16" t="n">
-        <v>45.02347713215597</v>
+        <v>45.02347713215606</v>
       </c>
       <c r="E16" t="n">
-        <v>42.84196676051279</v>
+        <v>42.84196676051288</v>
       </c>
       <c r="F16" t="n">
-        <v>41.82905213687486</v>
+        <v>41.82905213687495</v>
       </c>
       <c r="G16" t="n">
-        <v>63.14868351712487</v>
+        <v>63.14868351712496</v>
       </c>
       <c r="H16" t="n">
-        <v>47.51887338264316</v>
+        <v>47.51887338264324</v>
       </c>
       <c r="I16" t="n">
-        <v>14.25854947703828</v>
+        <v>14.25854947703836</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.48336295654443</v>
+        <v>17.48336295654451</v>
       </c>
       <c r="S16" t="n">
-        <v>98.63528383939786</v>
+        <v>98.63528383939794</v>
       </c>
       <c r="T16" t="n">
-        <v>119.0114028242212</v>
+        <v>119.0114028242213</v>
       </c>
       <c r="U16" t="n">
-        <v>182.6588352910557</v>
+        <v>182.6588352910558</v>
       </c>
       <c r="V16" t="n">
-        <v>148.5456474377716</v>
+        <v>148.5456474377717</v>
       </c>
       <c r="W16" t="n">
-        <v>182.9310024505346</v>
+        <v>182.9310024505347</v>
       </c>
       <c r="X16" t="n">
-        <v>122.1176595029808</v>
+        <v>122.1176595029809</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.9926574660384</v>
+        <v>114.9926574660385</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>199.8331492527603</v>
+        <v>199.8331492527605</v>
       </c>
       <c r="C17" t="n">
-        <v>182.3721993602873</v>
+        <v>159.8076186889995</v>
       </c>
       <c r="D17" t="n">
-        <v>171.7823492099627</v>
+        <v>171.7823492099629</v>
       </c>
       <c r="E17" t="n">
-        <v>176.4650969902532</v>
+        <v>199.0296776615417</v>
       </c>
       <c r="F17" t="n">
-        <v>223.9753533309912</v>
+        <v>223.9753533309914</v>
       </c>
       <c r="G17" t="n">
-        <v>229.6147158299725</v>
+        <v>229.6147158299727</v>
       </c>
       <c r="H17" t="n">
-        <v>128.0283737731645</v>
+        <v>128.0283737731647</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>27.99362325453986</v>
+        <v>27.99362325454003</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22197415516086</v>
+        <v>68.22197415516104</v>
       </c>
       <c r="V17" t="n">
-        <v>144.8515660594147</v>
+        <v>144.8515660594148</v>
       </c>
       <c r="W17" t="n">
-        <v>166.3402763066928</v>
+        <v>166.3402763066929</v>
       </c>
       <c r="X17" t="n">
-        <v>186.8304082677488</v>
+        <v>186.830408267749</v>
       </c>
       <c r="Y17" t="n">
-        <v>203.3372462453333</v>
+        <v>203.3372462453335</v>
       </c>
     </row>
     <row r="18">
@@ -1932,10 +1932,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057075</v>
       </c>
       <c r="S18" t="n">
-        <v>141.5851611355671</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>11.25283858316639</v>
+        <v>162.0550475885306</v>
       </c>
       <c r="U18" t="n">
         <v>225.8432667757365</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>67.19742685219322</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J19" t="n">
-        <v>4.962973278552951</v>
+        <v>4.962973278552937</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>70.26613908097566</v>
       </c>
       <c r="S19" t="n">
         <v>202.2272797254542</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70270629955736</v>
+        <v>222.6033987102776</v>
       </c>
       <c r="U19" t="n">
-        <v>103.3501387663919</v>
+        <v>103.350138766392</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>69.23695091310793</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>103.6223059258709</v>
       </c>
       <c r="X19" t="n">
-        <v>42.80896297831691</v>
+        <v>42.80896297831708</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.68396094137455</v>
+        <v>35.68396094137472</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>199.8331492527603</v>
+        <v>199.8331492527605</v>
       </c>
       <c r="C20" t="n">
-        <v>182.3721993602873</v>
+        <v>182.3721993602875</v>
       </c>
       <c r="D20" t="n">
-        <v>149.217768538676</v>
+        <v>171.7823492099629</v>
       </c>
       <c r="E20" t="n">
-        <v>199.0296776615415</v>
+        <v>199.0296776615417</v>
       </c>
       <c r="F20" t="n">
-        <v>223.9753533309912</v>
+        <v>223.9753533309914</v>
       </c>
       <c r="G20" t="n">
-        <v>229.6147158299725</v>
+        <v>229.6147158299727</v>
       </c>
       <c r="H20" t="n">
-        <v>128.0283737731645</v>
+        <v>128.0283737731647</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>27.99362325453986</v>
+        <v>27.99362325454003</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22197415516086</v>
+        <v>45.65739348387319</v>
       </c>
       <c r="V20" t="n">
-        <v>144.8515660594147</v>
+        <v>144.8515660594148</v>
       </c>
       <c r="W20" t="n">
-        <v>166.3402763066928</v>
+        <v>166.3402763066929</v>
       </c>
       <c r="X20" t="n">
-        <v>186.8304082677488</v>
+        <v>186.830408267749</v>
       </c>
       <c r="Y20" t="n">
-        <v>203.3372462453333</v>
+        <v>203.3372462453335</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>35.65283432070689</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.04962311002271</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057075</v>
       </c>
       <c r="S21" t="n">
-        <v>143.9819499248829</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>11.25283858316639</v>
+        <v>55.00588229122547</v>
       </c>
       <c r="U21" t="n">
         <v>225.8432667757365</v>
@@ -2239,28 +2239,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>117.6426592522392</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>117.8505453630947</v>
       </c>
       <c r="J22" t="n">
-        <v>4.962973278552951</v>
+        <v>4.962973278552937</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>19.326587314734</v>
+        <v>202.2272797254542</v>
       </c>
       <c r="T22" t="n">
-        <v>39.70270629955736</v>
+        <v>39.70270629955753</v>
       </c>
       <c r="U22" t="n">
-        <v>103.3501387663919</v>
+        <v>103.350138766392</v>
       </c>
       <c r="V22" t="n">
-        <v>69.23695091310776</v>
+        <v>69.23695091310793</v>
       </c>
       <c r="W22" t="n">
-        <v>103.6223059258708</v>
+        <v>103.6223059258709</v>
       </c>
       <c r="X22" t="n">
-        <v>131.362063251636</v>
+        <v>42.80896297831708</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>35.68396094137472</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>199.8331492527603</v>
+        <v>199.8331492527605</v>
       </c>
       <c r="C23" t="n">
-        <v>182.3721993602873</v>
+        <v>182.3721993602875</v>
       </c>
       <c r="D23" t="n">
-        <v>171.7823492099627</v>
+        <v>171.7823492099629</v>
       </c>
       <c r="E23" t="n">
-        <v>199.0296776615415</v>
+        <v>199.0296776615417</v>
       </c>
       <c r="F23" t="n">
-        <v>223.9753533309912</v>
+        <v>223.9753533309914</v>
       </c>
       <c r="G23" t="n">
-        <v>229.6147158299725</v>
+        <v>229.6147158299727</v>
       </c>
       <c r="H23" t="n">
-        <v>128.0283737731645</v>
+        <v>128.0283737731647</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>27.99362325453986</v>
+        <v>27.99362325454003</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22197415516086</v>
+        <v>68.22197415516104</v>
       </c>
       <c r="V23" t="n">
-        <v>144.8515660594147</v>
+        <v>144.8515660594148</v>
       </c>
       <c r="W23" t="n">
-        <v>166.3402763066928</v>
+        <v>166.3402763066929</v>
       </c>
       <c r="X23" t="n">
-        <v>186.8304082677488</v>
+        <v>186.830408267749</v>
       </c>
       <c r="Y23" t="n">
-        <v>203.3372462453333</v>
+        <v>203.3372462453335</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>66.31762437934391</v>
+        <v>19.29867250615855</v>
       </c>
       <c r="H24" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.04962311002271</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057075</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>11.25283858316639</v>
+        <v>194.1535309938866</v>
       </c>
       <c r="U24" t="n">
         <v>225.8432667757365</v>
@@ -2476,28 +2476,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>91.62181250210199</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>143.4856652656997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>117.8505453630947</v>
       </c>
       <c r="J25" t="n">
-        <v>4.962973278552951</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.326587314734</v>
+        <v>19.32658731473416</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70270629955736</v>
+        <v>39.70270629955753</v>
       </c>
       <c r="U25" t="n">
-        <v>103.3501387663919</v>
+        <v>103.350138766392</v>
       </c>
       <c r="V25" t="n">
-        <v>69.23695091310776</v>
+        <v>69.23695091310793</v>
       </c>
       <c r="W25" t="n">
-        <v>103.6223059258708</v>
+        <v>103.6223059258709</v>
       </c>
       <c r="X25" t="n">
-        <v>42.80896297831691</v>
+        <v>42.80896297831708</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.68396094137455</v>
+        <v>35.68396094137472</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.4251451388167</v>
+        <v>303.4251451388168</v>
       </c>
       <c r="C26" t="n">
-        <v>285.9641952463436</v>
+        <v>285.9641952463438</v>
       </c>
       <c r="D26" t="n">
-        <v>275.3743450960191</v>
+        <v>275.3743450960192</v>
       </c>
       <c r="E26" t="n">
-        <v>302.6216735475979</v>
+        <v>302.621673547598</v>
       </c>
       <c r="F26" t="n">
-        <v>327.5673492170475</v>
+        <v>327.5673492170476</v>
       </c>
       <c r="G26" t="n">
-        <v>333.2067117160288</v>
+        <v>333.206711716029</v>
       </c>
       <c r="H26" t="n">
-        <v>231.6203696592208</v>
+        <v>231.620369659221</v>
       </c>
       <c r="I26" t="n">
-        <v>23.70868119280442</v>
+        <v>23.70868119280451</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.19510722022707</v>
+        <v>66.19510722022713</v>
       </c>
       <c r="T26" t="n">
-        <v>131.5856191405962</v>
+        <v>131.5856191405963</v>
       </c>
       <c r="U26" t="n">
-        <v>171.8139700412172</v>
+        <v>171.8139700412173</v>
       </c>
       <c r="V26" t="n">
-        <v>248.443561945471</v>
+        <v>248.4435619454711</v>
       </c>
       <c r="W26" t="n">
-        <v>269.9322721927491</v>
+        <v>269.9322721927492</v>
       </c>
       <c r="X26" t="n">
-        <v>290.4224041538051</v>
+        <v>290.4224041538052</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.9292421313897</v>
+        <v>306.9292421313898</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057075</v>
       </c>
       <c r="S27" t="n">
         <v>143.9819499248829</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.5232836572734</v>
+        <v>100.5232836572735</v>
       </c>
       <c r="C28" t="n">
-        <v>87.93812457396395</v>
+        <v>87.93812457396405</v>
       </c>
       <c r="D28" t="n">
-        <v>69.30677649354847</v>
+        <v>69.30677649354857</v>
       </c>
       <c r="E28" t="n">
-        <v>67.12526612190528</v>
+        <v>67.12526612190538</v>
       </c>
       <c r="F28" t="n">
-        <v>66.11235149826736</v>
+        <v>66.11235149826746</v>
       </c>
       <c r="G28" t="n">
-        <v>87.43198287851736</v>
+        <v>87.43198287851746</v>
       </c>
       <c r="H28" t="n">
-        <v>71.80217274403566</v>
+        <v>71.80217274403574</v>
       </c>
       <c r="I28" t="n">
-        <v>38.54184883843077</v>
+        <v>38.54184883843087</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76666231793693</v>
+        <v>41.76666231793702</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9185832007903</v>
+        <v>122.9185832007904</v>
       </c>
       <c r="T28" t="n">
-        <v>143.2947021856137</v>
+        <v>143.2947021856138</v>
       </c>
       <c r="U28" t="n">
-        <v>206.9421346524482</v>
+        <v>206.9421346524483</v>
       </c>
       <c r="V28" t="n">
-        <v>172.8289467991641</v>
+        <v>172.8289467991642</v>
       </c>
       <c r="W28" t="n">
-        <v>207.2143018119271</v>
+        <v>207.2143018119272</v>
       </c>
       <c r="X28" t="n">
-        <v>146.4009588643733</v>
+        <v>146.4009588643734</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.2759568274309</v>
+        <v>139.275956827431</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.4251451388167</v>
+        <v>303.4251451388168</v>
       </c>
       <c r="C29" t="n">
-        <v>285.9641952463436</v>
+        <v>285.9641952463438</v>
       </c>
       <c r="D29" t="n">
-        <v>275.3743450960191</v>
+        <v>275.3743450960192</v>
       </c>
       <c r="E29" t="n">
-        <v>302.6216735475979</v>
+        <v>302.621673547598</v>
       </c>
       <c r="F29" t="n">
-        <v>327.5673492170475</v>
+        <v>327.5673492170476</v>
       </c>
       <c r="G29" t="n">
-        <v>333.2067117160288</v>
+        <v>333.206711716029</v>
       </c>
       <c r="H29" t="n">
-        <v>231.6203696592208</v>
+        <v>231.620369659221</v>
       </c>
       <c r="I29" t="n">
-        <v>23.70868119280442</v>
+        <v>23.70868119280449</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.19510722022707</v>
+        <v>66.19510722022711</v>
       </c>
       <c r="T29" t="n">
-        <v>131.5856191405962</v>
+        <v>131.5856191405963</v>
       </c>
       <c r="U29" t="n">
-        <v>171.8139700412172</v>
+        <v>171.8139700412173</v>
       </c>
       <c r="V29" t="n">
-        <v>248.443561945471</v>
+        <v>248.4435619454711</v>
       </c>
       <c r="W29" t="n">
-        <v>269.9322721927491</v>
+        <v>269.9322721927492</v>
       </c>
       <c r="X29" t="n">
-        <v>290.4224041538051</v>
+        <v>290.4224041538052</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.9292421313897</v>
+        <v>306.9292421313898</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057075</v>
       </c>
       <c r="S30" t="n">
         <v>143.9819499248829</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.5232836572734</v>
+        <v>100.5232836572735</v>
       </c>
       <c r="C31" t="n">
-        <v>87.93812457396395</v>
+        <v>87.93812457396403</v>
       </c>
       <c r="D31" t="n">
-        <v>69.30677649354847</v>
+        <v>69.30677649354855</v>
       </c>
       <c r="E31" t="n">
-        <v>67.12526612190528</v>
+        <v>67.12526612190537</v>
       </c>
       <c r="F31" t="n">
-        <v>66.11235149826736</v>
+        <v>66.11235149826744</v>
       </c>
       <c r="G31" t="n">
-        <v>87.43198287851736</v>
+        <v>87.43198287851745</v>
       </c>
       <c r="H31" t="n">
-        <v>71.80217274403566</v>
+        <v>71.80217274403573</v>
       </c>
       <c r="I31" t="n">
-        <v>38.54184883843077</v>
+        <v>38.54184883843085</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76666231793693</v>
+        <v>41.766662317937</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9185832007903</v>
+        <v>122.9185832007904</v>
       </c>
       <c r="T31" t="n">
-        <v>143.2947021856137</v>
+        <v>143.2947021856138</v>
       </c>
       <c r="U31" t="n">
-        <v>206.9421346524482</v>
+        <v>206.9421346524483</v>
       </c>
       <c r="V31" t="n">
-        <v>172.8289467991641</v>
+        <v>172.8289467991642</v>
       </c>
       <c r="W31" t="n">
-        <v>207.2143018119271</v>
+        <v>207.2143018119272</v>
       </c>
       <c r="X31" t="n">
-        <v>146.4009588643733</v>
+        <v>146.4009588643734</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.2759568274309</v>
+        <v>139.275956827431</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>231.620369659221</v>
       </c>
       <c r="I32" t="n">
-        <v>23.70868119280451</v>
+        <v>23.70868119280449</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.19510722022714</v>
+        <v>66.19510722022711</v>
       </c>
       <c r="T32" t="n">
         <v>131.5856191405963</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057075</v>
       </c>
       <c r="S33" t="n">
         <v>143.9819499248829</v>
@@ -3202,7 +3202,7 @@
         <v>87.43198287851745</v>
       </c>
       <c r="H34" t="n">
-        <v>71.80217274403573</v>
+        <v>71.80217274403574</v>
       </c>
       <c r="I34" t="n">
         <v>38.54184883843085</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76666231793702</v>
+        <v>41.766662317937</v>
       </c>
       <c r="S34" t="n">
         <v>122.9185832007904</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057075</v>
       </c>
       <c r="S36" t="n">
         <v>143.9819499248829</v>
@@ -3424,7 +3424,7 @@
         <v>27.42491719274372</v>
       </c>
       <c r="C37" t="n">
-        <v>14.83975810943426</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.33361641398767</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.962973278552951</v>
+        <v>4.962973278552937</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.2272797254542</v>
+        <v>56.29537954927646</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6033987102776</v>
+        <v>70.19633572108403</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2508311771121</v>
+        <v>133.8437681879185</v>
       </c>
       <c r="V37" t="n">
-        <v>106.2057431476501</v>
+        <v>99.73058033463442</v>
       </c>
       <c r="W37" t="n">
         <v>134.1159353473974</v>
       </c>
       <c r="X37" t="n">
-        <v>73.30259239984358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>66.17759036290121</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057075</v>
       </c>
       <c r="S39" t="n">
         <v>143.9819499248829</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.90008000575921</v>
+        <v>27.42491719274372</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>14.83975810943426</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7406794031812</v>
+        <v>14.33361641398767</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.962973278552951</v>
+        <v>4.962973278552937</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>49.82021673626066</v>
+        <v>56.29537954927646</v>
       </c>
       <c r="T40" t="n">
-        <v>70.19633572108403</v>
+        <v>222.6033987102776</v>
       </c>
       <c r="U40" t="n">
-        <v>133.8437681879185</v>
+        <v>286.2508311771121</v>
       </c>
       <c r="V40" t="n">
-        <v>99.73058033463442</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>134.1159353473974</v>
@@ -3727,7 +3727,7 @@
         <v>73.30259239984358</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>66.17759036290121</v>
       </c>
     </row>
     <row r="41">
@@ -3834,7 +3834,7 @@
         <v>135.852164523588</v>
       </c>
       <c r="H42" t="n">
-        <v>97.83211742750971</v>
+        <v>97.83211742751085</v>
       </c>
       <c r="I42" t="n">
         <v>38.04962311002271</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057075</v>
       </c>
       <c r="S42" t="n">
-        <v>143.9819499248827</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T42" t="n">
         <v>194.1535309938866</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>14.33361641398767</v>
+        <v>27.79479419326589</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.962973278552951</v>
+        <v>4.962973278552937</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>202.2272797254542</v>
       </c>
       <c r="T43" t="n">
-        <v>70.19633572108403</v>
+        <v>222.6033987102776</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2508311771121</v>
+        <v>133.8437681879185</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>99.73058033463442</v>
       </c>
       <c r="W43" t="n">
         <v>134.1159353473974</v>
       </c>
       <c r="X43" t="n">
-        <v>79.77775521285933</v>
+        <v>73.30259239984358</v>
       </c>
       <c r="Y43" t="n">
         <v>66.17759036290121</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057075</v>
       </c>
       <c r="S45" t="n">
         <v>143.9819499248829</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>27.42491719274372</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>14.83975810943426</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.80877922700322</v>
+        <v>14.33361641398767</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>117.8505453630947</v>
       </c>
       <c r="J46" t="n">
-        <v>4.962973278552951</v>
+        <v>4.962973278552937</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>49.82021673626066</v>
+        <v>49.82021673626065</v>
       </c>
       <c r="T46" t="n">
         <v>70.19633572108403</v>
       </c>
       <c r="U46" t="n">
-        <v>133.8437681879185</v>
+        <v>176.1716423475274</v>
       </c>
       <c r="V46" t="n">
-        <v>99.73058033463442</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>134.1159353473974</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>73.30259239984358</v>
       </c>
       <c r="Y46" t="n">
         <v>66.17759036290121</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>880.2876507956528</v>
+        <v>677.6214060031948</v>
       </c>
       <c r="C11" t="n">
-        <v>615.9635135381263</v>
+        <v>677.6214060031948</v>
       </c>
       <c r="D11" t="n">
-        <v>615.9635135381263</v>
+        <v>677.6214060031948</v>
       </c>
       <c r="E11" t="n">
-        <v>334.8136406227674</v>
+        <v>396.4715330878357</v>
       </c>
       <c r="F11" t="n">
-        <v>28.46611551604508</v>
+        <v>90.12400798111335</v>
       </c>
       <c r="G11" t="n">
-        <v>28.46611551604508</v>
+        <v>28.46611551604511</v>
       </c>
       <c r="H11" t="n">
-        <v>28.46611551604508</v>
+        <v>28.46611551604511</v>
       </c>
       <c r="I11" t="n">
-        <v>28.46611551604508</v>
+        <v>28.46611551604511</v>
       </c>
       <c r="J11" t="n">
-        <v>83.43604716125753</v>
+        <v>83.4360471612581</v>
       </c>
       <c r="K11" t="n">
-        <v>216.5602434586309</v>
+        <v>216.5602434586317</v>
       </c>
       <c r="L11" t="n">
-        <v>418.6143424701345</v>
+        <v>418.6143424701357</v>
       </c>
       <c r="M11" t="n">
-        <v>675.1078967214453</v>
+        <v>675.1078967214468</v>
       </c>
       <c r="N11" t="n">
-        <v>940.3655932151306</v>
+        <v>940.365593215132</v>
       </c>
       <c r="O11" t="n">
-        <v>1177.505652943962</v>
+        <v>1177.505652943964</v>
       </c>
       <c r="P11" t="n">
-        <v>1345.39820663438</v>
+        <v>1345.398206634382</v>
       </c>
       <c r="Q11" t="n">
-        <v>1423.305775802254</v>
+        <v>1423.305775802256</v>
       </c>
       <c r="R11" t="n">
-        <v>1423.305775802254</v>
+        <v>1423.305775802256</v>
       </c>
       <c r="S11" t="n">
-        <v>1423.305775802254</v>
+        <v>1380.970616348887</v>
       </c>
       <c r="T11" t="n">
-        <v>1423.305775802254</v>
+        <v>1380.970616348887</v>
       </c>
       <c r="U11" t="n">
-        <v>1423.305775802254</v>
+        <v>1231.949736874316</v>
       </c>
       <c r="V11" t="n">
-        <v>1423.305775802254</v>
+        <v>1231.949736874316</v>
       </c>
       <c r="W11" t="n">
-        <v>1423.305775802254</v>
+        <v>1231.949736874316</v>
       </c>
       <c r="X11" t="n">
-        <v>1165.788603088579</v>
+        <v>963.1223582961214</v>
       </c>
       <c r="Y11" t="n">
-        <v>880.2876507956528</v>
+        <v>677.6214060031948</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>376.2964573151379</v>
+        <v>585.5732166809086</v>
       </c>
       <c r="C12" t="n">
-        <v>201.8434280340109</v>
+        <v>515.7585670826667</v>
       </c>
       <c r="D12" t="n">
-        <v>157.5473980556448</v>
+        <v>366.8241574214154</v>
       </c>
       <c r="E12" t="n">
-        <v>102.9483227330745</v>
+        <v>207.5867024159599</v>
       </c>
       <c r="F12" t="n">
-        <v>61.05214444284474</v>
+        <v>61.05214444284485</v>
       </c>
       <c r="G12" t="n">
-        <v>28.46611551604508</v>
+        <v>28.46611551604511</v>
       </c>
       <c r="H12" t="n">
-        <v>28.46611551604508</v>
+        <v>28.46611551604511</v>
       </c>
       <c r="I12" t="n">
-        <v>28.46611551604508</v>
+        <v>28.46611551604511</v>
       </c>
       <c r="J12" t="n">
-        <v>42.38798326520934</v>
+        <v>167.2181082522141</v>
       </c>
       <c r="K12" t="n">
-        <v>144.3374974159257</v>
+        <v>269.1676224029305</v>
       </c>
       <c r="L12" t="n">
-        <v>327.7437416982009</v>
+        <v>452.5738666852058</v>
       </c>
       <c r="M12" t="n">
-        <v>561.1270462342096</v>
+        <v>685.9571712212146</v>
       </c>
       <c r="N12" t="n">
-        <v>815.0959573033374</v>
+        <v>939.9260822903423</v>
       </c>
       <c r="O12" t="n">
-        <v>1167.364136814395</v>
+        <v>1150.038223865743</v>
       </c>
       <c r="P12" t="n">
-        <v>1316.66458799899</v>
+        <v>1299.338675050338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1423.305775802254</v>
+        <v>1423.305775802256</v>
       </c>
       <c r="R12" t="n">
-        <v>1423.305775802254</v>
+        <v>1423.305775802256</v>
       </c>
       <c r="S12" t="n">
-        <v>1382.507842429702</v>
+        <v>1350.560349517498</v>
       </c>
       <c r="T12" t="n">
-        <v>1291.031544340985</v>
+        <v>1259.08405142878</v>
       </c>
       <c r="U12" t="n">
-        <v>1167.545412129187</v>
+        <v>1135.597919216982</v>
       </c>
       <c r="V12" t="n">
-        <v>1037.031683580329</v>
+        <v>1005.084190668124</v>
       </c>
       <c r="W12" t="n">
-        <v>782.7943268521276</v>
+        <v>855.4852136228078</v>
       </c>
       <c r="X12" t="n">
-        <v>679.58120632948</v>
+        <v>752.2720931001602</v>
       </c>
       <c r="Y12" t="n">
-        <v>544.5117943352059</v>
+        <v>649.1501740180914</v>
       </c>
     </row>
     <row r="13">
@@ -5179,67 +5179,67 @@
         <v>285.6586431992275</v>
       </c>
       <c r="D13" t="n">
-        <v>240.180383469777</v>
+        <v>240.1803834697769</v>
       </c>
       <c r="E13" t="n">
-        <v>196.9056695702691</v>
+        <v>196.9056695702689</v>
       </c>
       <c r="F13" t="n">
-        <v>154.654101755244</v>
+        <v>154.6541017552437</v>
       </c>
       <c r="G13" t="n">
-        <v>90.86755274804719</v>
+        <v>90.86755274804682</v>
       </c>
       <c r="H13" t="n">
-        <v>42.86869074537667</v>
+        <v>42.86869074537679</v>
       </c>
       <c r="I13" t="n">
-        <v>28.46611551604508</v>
+        <v>28.46611551604511</v>
       </c>
       <c r="J13" t="n">
-        <v>54.1081331747768</v>
+        <v>28.46611551604511</v>
       </c>
       <c r="K13" t="n">
-        <v>175.8708371231717</v>
+        <v>150.2288194644401</v>
       </c>
       <c r="L13" t="n">
-        <v>387.2116113483601</v>
+        <v>464.1256696168242</v>
       </c>
       <c r="M13" t="n">
-        <v>722.9860246274287</v>
+        <v>697.344006968697</v>
       </c>
       <c r="N13" t="n">
-        <v>956.0935676075418</v>
+        <v>930.4515499488102</v>
       </c>
       <c r="O13" t="n">
-        <v>1257.945893511529</v>
+        <v>1155.389817584335</v>
       </c>
       <c r="P13" t="n">
-        <v>1404.957582628881</v>
+        <v>1302.401506701687</v>
       </c>
       <c r="Q13" t="n">
-        <v>1423.305775802254</v>
+        <v>1423.305775802256</v>
       </c>
       <c r="R13" t="n">
-        <v>1405.645813219886</v>
+        <v>1405.645813219887</v>
       </c>
       <c r="S13" t="n">
-        <v>1306.014213382111</v>
+        <v>1306.014213382112</v>
       </c>
       <c r="T13" t="n">
-        <v>1185.800675175827</v>
+        <v>1185.800675175828</v>
       </c>
       <c r="U13" t="n">
         <v>1001.296801144458</v>
       </c>
       <c r="V13" t="n">
-        <v>851.250692621456</v>
+        <v>851.2506926214563</v>
       </c>
       <c r="W13" t="n">
-        <v>666.4719022673806</v>
+        <v>666.4719022673809</v>
       </c>
       <c r="X13" t="n">
-        <v>543.1207310522485</v>
+        <v>543.1207310522486</v>
       </c>
       <c r="Y13" t="n">
         <v>426.9665315916037</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1131.320404330125</v>
+        <v>1231.536986869909</v>
       </c>
       <c r="C14" t="n">
-        <v>1131.320404330125</v>
+        <v>1231.536986869909</v>
       </c>
       <c r="D14" t="n">
-        <v>877.6930854062592</v>
+        <v>977.9096679460438</v>
       </c>
       <c r="E14" t="n">
-        <v>596.5432124909003</v>
+        <v>696.7597950306847</v>
       </c>
       <c r="F14" t="n">
-        <v>290.195687384178</v>
+        <v>390.4122699239624</v>
       </c>
       <c r="G14" t="n">
-        <v>252.9202798728071</v>
+        <v>78.36841906069343</v>
       </c>
       <c r="H14" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="I14" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J14" t="n">
-        <v>265.8644763991521</v>
+        <v>265.8644763991522</v>
       </c>
       <c r="K14" t="n">
-        <v>398.9886726965253</v>
+        <v>719.8926311419787</v>
       </c>
       <c r="L14" t="n">
-        <v>601.042771708029</v>
+        <v>921.9467301534825</v>
       </c>
       <c r="M14" t="n">
-        <v>857.53632595934</v>
+        <v>1178.440284404794</v>
       </c>
       <c r="N14" t="n">
-        <v>1122.794022453025</v>
+        <v>1443.697980898479</v>
       </c>
       <c r="O14" t="n">
-        <v>1374.903851929369</v>
+        <v>1903.676413772444</v>
       </c>
       <c r="P14" t="n">
-        <v>1861.377126709555</v>
+        <v>2071.568967462862</v>
       </c>
       <c r="Q14" t="n">
-        <v>2149.476536630735</v>
+        <v>2149.476536630736</v>
       </c>
       <c r="R14" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="S14" t="n">
-        <v>2132.109627225959</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="T14" t="n">
-        <v>2023.723445630804</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="U14" t="n">
-        <v>1874.702566156233</v>
+        <v>2025.423907204758</v>
       </c>
       <c r="V14" t="n">
-        <v>1648.278058495548</v>
+        <v>1798.999399544072</v>
       </c>
       <c r="W14" t="n">
-        <v>1400.147782908319</v>
+        <v>1798.999399544072</v>
       </c>
       <c r="X14" t="n">
-        <v>1131.320404330125</v>
+        <v>1798.999399544072</v>
       </c>
       <c r="Y14" t="n">
-        <v>1131.320404330125</v>
+        <v>1513.498447251146</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>733.1898968283731</v>
+        <v>947.1270396354652</v>
       </c>
       <c r="C15" t="n">
-        <v>558.7368675472461</v>
+        <v>772.6740103543382</v>
       </c>
       <c r="D15" t="n">
-        <v>409.8024578859948</v>
+        <v>623.7396006930869</v>
       </c>
       <c r="E15" t="n">
-        <v>250.5650028805393</v>
+        <v>464.5021456876314</v>
       </c>
       <c r="F15" t="n">
-        <v>104.0304449074243</v>
+        <v>317.9675877145163</v>
       </c>
       <c r="G15" t="n">
-        <v>43.48889573358655</v>
+        <v>180.7431791048314</v>
       </c>
       <c r="H15" t="n">
-        <v>43.48889573358655</v>
+        <v>81.92285847098324</v>
       </c>
       <c r="I15" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J15" t="n">
-        <v>182.2408884697555</v>
+        <v>182.2408884697556</v>
       </c>
       <c r="K15" t="n">
-        <v>546.0109872629247</v>
+        <v>546.0109872629248</v>
       </c>
       <c r="L15" t="n">
-        <v>729.4172315451999</v>
+        <v>962.5176360245021</v>
       </c>
       <c r="M15" t="n">
-        <v>962.8005360812086</v>
+        <v>1195.900940560511</v>
       </c>
       <c r="N15" t="n">
-        <v>1216.769447150336</v>
+        <v>1449.869851629639</v>
       </c>
       <c r="O15" t="n">
-        <v>1452.005478346548</v>
+        <v>1659.98199320504</v>
       </c>
       <c r="P15" t="n">
-        <v>1916.58407048468</v>
+        <v>2124.560585343172</v>
       </c>
       <c r="Q15" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="R15" t="n">
-        <v>2166.805241134825</v>
+        <v>2171.465624576147</v>
       </c>
       <c r="S15" t="n">
-        <v>2126.007307762273</v>
+        <v>2026.02931152071</v>
       </c>
       <c r="T15" t="n">
-        <v>2034.531009673555</v>
+        <v>1934.553013431992</v>
       </c>
       <c r="U15" t="n">
-        <v>1806.406497778872</v>
+        <v>1706.428501537309</v>
       </c>
       <c r="V15" t="n">
-        <v>1571.254389547129</v>
+        <v>1471.276393305566</v>
       </c>
       <c r="W15" t="n">
-        <v>1317.017032818928</v>
+        <v>1321.677416260249</v>
       </c>
       <c r="X15" t="n">
-        <v>1109.165532613395</v>
+        <v>1218.464295737602</v>
       </c>
       <c r="Y15" t="n">
-        <v>901.4052338484412</v>
+        <v>1115.342376655533</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>364.97922666179</v>
+        <v>364.9792266617906</v>
       </c>
       <c r="C16" t="n">
-        <v>300.6814234167683</v>
+        <v>300.6814234167688</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2031636873178</v>
+        <v>255.2031636873183</v>
       </c>
       <c r="E16" t="n">
-        <v>211.92844978781</v>
+        <v>211.9284497878103</v>
       </c>
       <c r="F16" t="n">
-        <v>169.6768819727849</v>
+        <v>169.6768819727851</v>
       </c>
       <c r="G16" t="n">
-        <v>105.890332965588</v>
+        <v>105.8903329655882</v>
       </c>
       <c r="H16" t="n">
-        <v>57.89147096291814</v>
+        <v>57.89147096291824</v>
       </c>
       <c r="I16" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J16" t="n">
         <v>141.1316281150149</v>
@@ -5440,46 +5440,46 @@
         <v>262.8943320634099</v>
       </c>
       <c r="L16" t="n">
-        <v>474.2351062885982</v>
+        <v>576.7911822157939</v>
       </c>
       <c r="M16" t="n">
-        <v>810.0095195676669</v>
+        <v>810.0095195676668</v>
       </c>
       <c r="N16" t="n">
         <v>1043.11706254778</v>
       </c>
       <c r="O16" t="n">
-        <v>1242.413312524572</v>
+        <v>1242.413312524571</v>
       </c>
       <c r="P16" t="n">
-        <v>1389.425001641924</v>
+        <v>1419.980362846424</v>
       </c>
       <c r="Q16" t="n">
-        <v>1438.328556019796</v>
+        <v>1438.328556019797</v>
       </c>
       <c r="R16" t="n">
-        <v>1420.668593437427</v>
+        <v>1420.668593437429</v>
       </c>
       <c r="S16" t="n">
-        <v>1321.036993599652</v>
+        <v>1321.036993599653</v>
       </c>
       <c r="T16" t="n">
-        <v>1200.823455393368</v>
+        <v>1200.823455393369</v>
       </c>
       <c r="U16" t="n">
-        <v>1016.319581361998</v>
+        <v>1016.319581361999</v>
       </c>
       <c r="V16" t="n">
-        <v>866.2734728389968</v>
+        <v>866.2734728389976</v>
       </c>
       <c r="W16" t="n">
-        <v>681.4946824849214</v>
+        <v>681.4946824849221</v>
       </c>
       <c r="X16" t="n">
-        <v>558.1435112697893</v>
+        <v>558.14351126979</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.9893118091445</v>
+        <v>441.9893118091451</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.961712394831</v>
+        <v>1166.961712394832</v>
       </c>
       <c r="C17" t="n">
-        <v>982.7473696066625</v>
+        <v>1005.539875335236</v>
       </c>
       <c r="D17" t="n">
-        <v>809.2298451521547</v>
+        <v>832.0223508807283</v>
       </c>
       <c r="E17" t="n">
-        <v>630.9822724347262</v>
+        <v>630.9822724347265</v>
       </c>
       <c r="F17" t="n">
-        <v>404.7445417973613</v>
+        <v>404.7445417973614</v>
       </c>
       <c r="G17" t="n">
-        <v>172.8104854034497</v>
+        <v>172.8104854034499</v>
       </c>
       <c r="H17" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="I17" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J17" t="n">
-        <v>265.8644763991521</v>
+        <v>265.8644763991522</v>
       </c>
       <c r="K17" t="n">
-        <v>413.9584424440377</v>
+        <v>719.8926311419787</v>
       </c>
       <c r="L17" t="n">
-        <v>616.0125414555414</v>
+        <v>934.5932625453104</v>
       </c>
       <c r="M17" t="n">
-        <v>872.5060957068524</v>
+        <v>1191.086816796621</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.763792200538</v>
+        <v>1456.344513290307</v>
       </c>
       <c r="O17" t="n">
-        <v>1374.903851929369</v>
+        <v>1693.484573019138</v>
       </c>
       <c r="P17" t="n">
-        <v>1861.377126709555</v>
+        <v>1861.377126709556</v>
       </c>
       <c r="Q17" t="n">
-        <v>2149.476536630735</v>
+        <v>2149.476536630736</v>
       </c>
       <c r="R17" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="S17" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="T17" t="n">
-        <v>2146.168399553529</v>
+        <v>2146.168399553531</v>
       </c>
       <c r="U17" t="n">
-        <v>2077.257314548316</v>
+        <v>2077.257314548318</v>
       </c>
       <c r="V17" t="n">
-        <v>1930.942601356988</v>
+        <v>1930.94260135699</v>
       </c>
       <c r="W17" t="n">
-        <v>1762.922120239117</v>
+        <v>1762.922120239118</v>
       </c>
       <c r="X17" t="n">
-        <v>1574.20453613028</v>
+        <v>1574.204536130281</v>
       </c>
       <c r="Y17" t="n">
-        <v>1368.813378306711</v>
+        <v>1368.813378306712</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>711.0823103919321</v>
+        <v>701.7721610285018</v>
       </c>
       <c r="C18" t="n">
-        <v>536.6292811108051</v>
+        <v>527.3191317473749</v>
       </c>
       <c r="D18" t="n">
-        <v>387.6948714495538</v>
+        <v>378.3847220861236</v>
       </c>
       <c r="E18" t="n">
-        <v>228.4574164440983</v>
+        <v>219.1472670806681</v>
       </c>
       <c r="F18" t="n">
-        <v>81.92285847098323</v>
+        <v>219.1472670806681</v>
       </c>
       <c r="G18" t="n">
-        <v>81.92285847098323</v>
+        <v>81.92285847098324</v>
       </c>
       <c r="H18" t="n">
-        <v>81.92285847098323</v>
+        <v>81.92285847098324</v>
       </c>
       <c r="I18" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J18" t="n">
-        <v>182.2408884697555</v>
+        <v>182.2408884697556</v>
       </c>
       <c r="K18" t="n">
-        <v>297.4150640361423</v>
+        <v>546.0109872629248</v>
       </c>
       <c r="L18" t="n">
-        <v>480.8213083184176</v>
+        <v>729.4172315452</v>
       </c>
       <c r="M18" t="n">
-        <v>1018.996393021551</v>
+        <v>962.8005360812087</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.171477724684</v>
+        <v>1216.769447150336</v>
       </c>
       <c r="O18" t="n">
-        <v>1767.283619300085</v>
+        <v>1452.005478346549</v>
       </c>
       <c r="P18" t="n">
-        <v>1916.58407048468</v>
+        <v>1916.584070484681</v>
       </c>
       <c r="Q18" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="R18" t="n">
-        <v>2166.805241134825</v>
+        <v>2166.805241134826</v>
       </c>
       <c r="S18" t="n">
-        <v>2023.789926856474</v>
+        <v>2166.805241134826</v>
       </c>
       <c r="T18" t="n">
-        <v>2012.423423237114</v>
+        <v>2003.113273873684</v>
       </c>
       <c r="U18" t="n">
-        <v>1784.298911342431</v>
+        <v>1774.988761979001</v>
       </c>
       <c r="V18" t="n">
-        <v>1549.146803110688</v>
+        <v>1539.836653747258</v>
       </c>
       <c r="W18" t="n">
-        <v>1294.909446382487</v>
+        <v>1285.599297019057</v>
       </c>
       <c r="X18" t="n">
-        <v>1087.057946176954</v>
+        <v>1077.747796813524</v>
       </c>
       <c r="Y18" t="n">
-        <v>879.2976474120001</v>
+        <v>869.9874980485699</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.4191437071631</v>
+        <v>167.542954967574</v>
       </c>
       <c r="C19" t="n">
-        <v>235.4191437071631</v>
+        <v>167.542954967574</v>
       </c>
       <c r="D19" t="n">
-        <v>235.4191437071631</v>
+        <v>167.542954967574</v>
       </c>
       <c r="E19" t="n">
-        <v>235.4191437071631</v>
+        <v>167.542954967574</v>
       </c>
       <c r="F19" t="n">
-        <v>235.4191437071631</v>
+        <v>167.542954967574</v>
       </c>
       <c r="G19" t="n">
-        <v>235.4191437071631</v>
+        <v>167.542954967574</v>
       </c>
       <c r="H19" t="n">
         <v>167.542954967574</v>
       </c>
       <c r="I19" t="n">
-        <v>48.5020000553572</v>
+        <v>48.50200005535721</v>
       </c>
       <c r="J19" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="K19" t="n">
         <v>165.2515996819815</v>
       </c>
       <c r="L19" t="n">
-        <v>376.5923739071698</v>
+        <v>376.5923739071699</v>
       </c>
       <c r="M19" t="n">
-        <v>609.8107112590426</v>
+        <v>609.8107112590427</v>
       </c>
       <c r="N19" t="n">
-        <v>842.9182542391557</v>
+        <v>842.9182542391559</v>
       </c>
       <c r="O19" t="n">
         <v>1042.214504215947</v>
@@ -5695,28 +5695,28 @@
         <v>1207.574386506672</v>
       </c>
       <c r="R19" t="n">
-        <v>1207.574386506672</v>
+        <v>1136.598488445081</v>
       </c>
       <c r="S19" t="n">
-        <v>1003.304406986011</v>
+        <v>932.3285089244201</v>
       </c>
       <c r="T19" t="n">
-        <v>963.2006632490848</v>
+        <v>707.4765910352509</v>
       </c>
       <c r="U19" t="n">
-        <v>858.8065836870727</v>
+        <v>603.0825114732387</v>
       </c>
       <c r="V19" t="n">
-        <v>604.1220954811859</v>
+        <v>533.1461974195943</v>
       </c>
       <c r="W19" t="n">
-        <v>314.7049254442252</v>
+        <v>428.4772015348762</v>
       </c>
       <c r="X19" t="n">
-        <v>271.4635486984506</v>
+        <v>385.2358247891013</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.4191437071631</v>
+        <v>349.1914197978138</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.961712394832</v>
+        <v>1189.754218123405</v>
       </c>
       <c r="C20" t="n">
-        <v>982.7473696066629</v>
+        <v>1005.539875335236</v>
       </c>
       <c r="D20" t="n">
-        <v>832.0223508807277</v>
+        <v>832.0223508807284</v>
       </c>
       <c r="E20" t="n">
-        <v>630.9822724347262</v>
+        <v>630.9822724347266</v>
       </c>
       <c r="F20" t="n">
-        <v>404.7445417973613</v>
+        <v>404.7445417973616</v>
       </c>
       <c r="G20" t="n">
-        <v>172.8104854034497</v>
+        <v>172.8104854034499</v>
       </c>
       <c r="H20" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="I20" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J20" t="n">
-        <v>265.8644763991521</v>
+        <v>265.8644763991522</v>
       </c>
       <c r="K20" t="n">
-        <v>438.9266924926301</v>
+        <v>438.9266924926311</v>
       </c>
       <c r="L20" t="n">
-        <v>640.9807915041338</v>
+        <v>640.9807915041349</v>
       </c>
       <c r="M20" t="n">
-        <v>897.4743457554448</v>
+        <v>897.4743457554459</v>
       </c>
       <c r="N20" t="n">
-        <v>1162.73204224913</v>
+        <v>1162.732042249131</v>
       </c>
       <c r="O20" t="n">
-        <v>1399.872101977962</v>
+        <v>1399.872101977963</v>
       </c>
       <c r="P20" t="n">
-        <v>1886.345376758148</v>
+        <v>1886.345376758149</v>
       </c>
       <c r="Q20" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="R20" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="S20" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="T20" t="n">
-        <v>2146.168399553529</v>
+        <v>2146.16839955353</v>
       </c>
       <c r="U20" t="n">
-        <v>2077.257314548317</v>
+        <v>2100.049820276891</v>
       </c>
       <c r="V20" t="n">
-        <v>1930.942601356989</v>
+        <v>1953.735107085563</v>
       </c>
       <c r="W20" t="n">
-        <v>1762.922120239117</v>
+        <v>1785.714625967691</v>
       </c>
       <c r="X20" t="n">
-        <v>1574.20453613028</v>
+        <v>1596.997041858854</v>
       </c>
       <c r="Y20" t="n">
-        <v>1368.813378306711</v>
+        <v>1391.605884035285</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>708.6613116148453</v>
+        <v>809.9026310257801</v>
       </c>
       <c r="C21" t="n">
-        <v>534.2082823337183</v>
+        <v>635.4496017446531</v>
       </c>
       <c r="D21" t="n">
-        <v>385.2738726724671</v>
+        <v>486.5151920834019</v>
       </c>
       <c r="E21" t="n">
-        <v>226.0364176670116</v>
+        <v>327.2777370779464</v>
       </c>
       <c r="F21" t="n">
-        <v>79.50185969389653</v>
+        <v>180.7431791048314</v>
       </c>
       <c r="G21" t="n">
-        <v>43.48889573358655</v>
+        <v>180.7431791048314</v>
       </c>
       <c r="H21" t="n">
-        <v>43.48889573358655</v>
+        <v>81.92285847098324</v>
       </c>
       <c r="I21" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J21" t="n">
-        <v>182.2408884697555</v>
+        <v>182.2408884697556</v>
       </c>
       <c r="K21" t="n">
-        <v>546.0109872629247</v>
+        <v>546.0109872629248</v>
       </c>
       <c r="L21" t="n">
-        <v>729.4172315451999</v>
+        <v>729.4172315452</v>
       </c>
       <c r="M21" t="n">
-        <v>962.8005360812086</v>
+        <v>962.8005360812087</v>
       </c>
       <c r="N21" t="n">
         <v>1216.769447150336</v>
       </c>
       <c r="O21" t="n">
-        <v>1452.005478346548</v>
+        <v>1452.005478346549</v>
       </c>
       <c r="P21" t="n">
-        <v>1916.58407048468</v>
+        <v>1916.584070484681</v>
       </c>
       <c r="Q21" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="R21" t="n">
-        <v>2166.805241134825</v>
+        <v>2166.805241134826</v>
       </c>
       <c r="S21" t="n">
-        <v>2021.368928079388</v>
+        <v>2166.805241134826</v>
       </c>
       <c r="T21" t="n">
-        <v>2010.002424460028</v>
+        <v>2111.243743870962</v>
       </c>
       <c r="U21" t="n">
-        <v>1781.877912565344</v>
+        <v>1883.119231976279</v>
       </c>
       <c r="V21" t="n">
-        <v>1546.725804333602</v>
+        <v>1647.967123744536</v>
       </c>
       <c r="W21" t="n">
-        <v>1292.4884476054</v>
+        <v>1393.729767016335</v>
       </c>
       <c r="X21" t="n">
-        <v>1084.636947399867</v>
+        <v>1185.878266810802</v>
       </c>
       <c r="Y21" t="n">
-        <v>876.8766486349134</v>
+        <v>978.1179680458481</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>515.4679159779929</v>
+        <v>604.9154920116476</v>
       </c>
       <c r="C22" t="n">
-        <v>346.531733050086</v>
+        <v>486.0845230699919</v>
       </c>
       <c r="D22" t="n">
-        <v>196.4150936377503</v>
+        <v>335.9678836576561</v>
       </c>
       <c r="E22" t="n">
-        <v>48.5020000553572</v>
+        <v>335.9678836576561</v>
       </c>
       <c r="F22" t="n">
-        <v>48.5020000553572</v>
+        <v>335.9678836576561</v>
       </c>
       <c r="G22" t="n">
-        <v>48.5020000553572</v>
+        <v>167.542954967574</v>
       </c>
       <c r="H22" t="n">
-        <v>48.5020000553572</v>
+        <v>167.542954967574</v>
       </c>
       <c r="I22" t="n">
-        <v>48.5020000553572</v>
+        <v>48.50200005535721</v>
       </c>
       <c r="J22" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="K22" t="n">
         <v>165.2515996819815</v>
       </c>
       <c r="L22" t="n">
-        <v>376.5923739071698</v>
+        <v>376.5923739071699</v>
       </c>
       <c r="M22" t="n">
-        <v>609.8107112590426</v>
+        <v>609.8107112590427</v>
       </c>
       <c r="N22" t="n">
-        <v>842.9182542391557</v>
+        <v>842.9182542391559</v>
       </c>
       <c r="O22" t="n">
         <v>1042.214504215947</v>
@@ -5935,25 +5935,25 @@
         <v>1207.574386506672</v>
       </c>
       <c r="S22" t="n">
-        <v>1188.052581138254</v>
+        <v>1003.304406986012</v>
       </c>
       <c r="T22" t="n">
-        <v>1147.948837401327</v>
+        <v>963.2006632490848</v>
       </c>
       <c r="U22" t="n">
-        <v>1043.554757839315</v>
+        <v>858.8065836870726</v>
       </c>
       <c r="V22" t="n">
-        <v>973.6184437856713</v>
+        <v>788.8702696334282</v>
       </c>
       <c r="W22" t="n">
-        <v>868.9494479009534</v>
+        <v>684.20127374871</v>
       </c>
       <c r="X22" t="n">
-        <v>736.260495121523</v>
+        <v>640.9598970029352</v>
       </c>
       <c r="Y22" t="n">
-        <v>515.4679159779929</v>
+        <v>604.9154920116476</v>
       </c>
     </row>
     <row r="23">
@@ -5969,70 +5969,70 @@
         <v>1006.00502851337</v>
       </c>
       <c r="D23" t="n">
-        <v>832.4875040588618</v>
+        <v>832.4875040588622</v>
       </c>
       <c r="E23" t="n">
-        <v>631.4474256128603</v>
+        <v>631.447425612861</v>
       </c>
       <c r="F23" t="n">
-        <v>405.2096949754953</v>
+        <v>405.2096949754959</v>
       </c>
       <c r="G23" t="n">
-        <v>173.2756385815838</v>
+        <v>173.275638581584</v>
       </c>
       <c r="H23" t="n">
-        <v>43.95404891172068</v>
+        <v>43.95404891172072</v>
       </c>
       <c r="I23" t="n">
-        <v>43.95404891172068</v>
+        <v>43.95404891172072</v>
       </c>
       <c r="J23" t="n">
-        <v>266.3296295772863</v>
+        <v>266.3296295772864</v>
       </c>
       <c r="K23" t="n">
-        <v>399.4538258746595</v>
+        <v>399.4538258746596</v>
       </c>
       <c r="L23" t="n">
-        <v>601.5079248861631</v>
+        <v>601.5079248861634</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.439280168706</v>
+        <v>858.0014791374745</v>
       </c>
       <c r="N23" t="n">
-        <v>1504.570422245605</v>
+        <v>1123.25917563116</v>
       </c>
       <c r="O23" t="n">
-        <v>1741.710481974436</v>
+        <v>1398.161510836078</v>
       </c>
       <c r="P23" t="n">
-        <v>1909.603035664854</v>
+        <v>1884.634785616264</v>
       </c>
       <c r="Q23" t="n">
-        <v>2197.702445586034</v>
+        <v>2172.734195537444</v>
       </c>
       <c r="R23" t="n">
-        <v>2197.702445586034</v>
+        <v>2197.702445586036</v>
       </c>
       <c r="S23" t="n">
-        <v>2197.702445586034</v>
+        <v>2197.702445586036</v>
       </c>
       <c r="T23" t="n">
-        <v>2169.426058460236</v>
+        <v>2169.426058460238</v>
       </c>
       <c r="U23" t="n">
-        <v>2100.514973455023</v>
+        <v>2100.514973455025</v>
       </c>
       <c r="V23" t="n">
-        <v>1954.200260263695</v>
+        <v>1954.200260263697</v>
       </c>
       <c r="W23" t="n">
-        <v>1786.179779145824</v>
+        <v>1786.179779145825</v>
       </c>
       <c r="X23" t="n">
-        <v>1597.462195036987</v>
+        <v>1597.462195036988</v>
       </c>
       <c r="Y23" t="n">
-        <v>1392.071037213418</v>
+        <v>1392.071037213419</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>877.355283576989</v>
+        <v>692.6071094247488</v>
       </c>
       <c r="C24" t="n">
-        <v>702.902254295862</v>
+        <v>518.1540801436219</v>
       </c>
       <c r="D24" t="n">
-        <v>553.9678446346107</v>
+        <v>369.2196704823706</v>
       </c>
       <c r="E24" t="n">
-        <v>394.7303896291552</v>
+        <v>209.9822154769151</v>
       </c>
       <c r="F24" t="n">
-        <v>248.1958316560402</v>
+        <v>63.44765750380006</v>
       </c>
       <c r="G24" t="n">
-        <v>181.2083322829656</v>
+        <v>43.95404891172072</v>
       </c>
       <c r="H24" t="n">
-        <v>82.38801164911736</v>
+        <v>43.95404891172072</v>
       </c>
       <c r="I24" t="n">
-        <v>43.95404891172068</v>
+        <v>43.95404891172072</v>
       </c>
       <c r="J24" t="n">
         <v>182.7060416478897</v>
       </c>
       <c r="K24" t="n">
-        <v>546.4761404410588</v>
+        <v>546.4761404410589</v>
       </c>
       <c r="L24" t="n">
-        <v>777.7987800727168</v>
+        <v>729.8823847233341</v>
       </c>
       <c r="M24" t="n">
-        <v>1011.182084608726</v>
+        <v>963.2656892593429</v>
       </c>
       <c r="N24" t="n">
-        <v>1265.150995677853</v>
+        <v>1217.234600328471</v>
       </c>
       <c r="O24" t="n">
-        <v>1475.263137253254</v>
+        <v>1475.263137253256</v>
       </c>
       <c r="P24" t="n">
-        <v>1939.841729391386</v>
+        <v>1939.841729391389</v>
       </c>
       <c r="Q24" t="n">
-        <v>2197.702445586034</v>
+        <v>2197.702445586036</v>
       </c>
       <c r="R24" t="n">
-        <v>2190.062900041532</v>
+        <v>2190.062900041534</v>
       </c>
       <c r="S24" t="n">
-        <v>2190.062900041532</v>
+        <v>2190.062900041534</v>
       </c>
       <c r="T24" t="n">
-        <v>2178.696396422171</v>
+        <v>1993.948222269931</v>
       </c>
       <c r="U24" t="n">
-        <v>1950.571884527488</v>
+        <v>1765.823710375248</v>
       </c>
       <c r="V24" t="n">
-        <v>1715.419776295745</v>
+        <v>1530.671602143505</v>
       </c>
       <c r="W24" t="n">
-        <v>1461.182419567544</v>
+        <v>1276.434245415304</v>
       </c>
       <c r="X24" t="n">
-        <v>1253.330919362011</v>
+        <v>1068.582745209771</v>
       </c>
       <c r="Y24" t="n">
-        <v>1045.570620597057</v>
+        <v>860.8224464448169</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>608.4803545117857</v>
+        <v>608.4803545117845</v>
       </c>
       <c r="C25" t="n">
-        <v>439.5441715838788</v>
+        <v>608.4803545117845</v>
       </c>
       <c r="D25" t="n">
-        <v>289.427532171543</v>
+        <v>608.4803545117845</v>
       </c>
       <c r="E25" t="n">
-        <v>141.5144385891499</v>
+        <v>460.5672609293914</v>
       </c>
       <c r="F25" t="n">
-        <v>48.96715323349133</v>
+        <v>460.5672609293914</v>
       </c>
       <c r="G25" t="n">
-        <v>48.96715323349133</v>
+        <v>315.6322455094927</v>
       </c>
       <c r="H25" t="n">
-        <v>48.96715323349133</v>
+        <v>162.9950038239376</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96715323349133</v>
+        <v>43.95404891172072</v>
       </c>
       <c r="J25" t="n">
-        <v>43.95404891172068</v>
+        <v>43.95404891172072</v>
       </c>
       <c r="K25" t="n">
-        <v>165.7167528601156</v>
+        <v>165.7167528601157</v>
       </c>
       <c r="L25" t="n">
-        <v>377.0575270853039</v>
+        <v>377.0575270853041</v>
       </c>
       <c r="M25" t="n">
-        <v>610.2758644371768</v>
+        <v>610.2758644371769</v>
       </c>
       <c r="N25" t="n">
-        <v>843.3834074172898</v>
+        <v>843.3834074172901</v>
       </c>
       <c r="O25" t="n">
-        <v>1042.679657394081</v>
+        <v>1042.679657394082</v>
       </c>
       <c r="P25" t="n">
         <v>1189.691346511434</v>
       </c>
       <c r="Q25" t="n">
-        <v>1208.039539684806</v>
+        <v>1208.039539684807</v>
       </c>
       <c r="R25" t="n">
-        <v>1208.039539684806</v>
+        <v>1208.039539684807</v>
       </c>
       <c r="S25" t="n">
         <v>1188.517734316388</v>
       </c>
       <c r="T25" t="n">
-        <v>1148.413990579462</v>
+        <v>1148.413990579461</v>
       </c>
       <c r="U25" t="n">
-        <v>1044.01991101745</v>
+        <v>1044.019911017449</v>
       </c>
       <c r="V25" t="n">
-        <v>974.0835969638055</v>
+        <v>974.0835969638048</v>
       </c>
       <c r="W25" t="n">
-        <v>869.4146010790876</v>
+        <v>869.4146010790867</v>
       </c>
       <c r="X25" t="n">
-        <v>826.1732243333129</v>
+        <v>826.1732243333119</v>
       </c>
       <c r="Y25" t="n">
-        <v>790.1288193420254</v>
+        <v>790.1288193420243</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.612319227321</v>
+        <v>1871.612319227323</v>
       </c>
       <c r="C26" t="n">
-        <v>1582.759596756267</v>
+        <v>1582.759596756268</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.603692618874</v>
+        <v>1304.603692618875</v>
       </c>
       <c r="E26" t="n">
-        <v>998.9252344899874</v>
+        <v>998.9252344899884</v>
       </c>
       <c r="F26" t="n">
-        <v>668.0491241697379</v>
+        <v>668.0491241697382</v>
       </c>
       <c r="G26" t="n">
-        <v>331.476688092941</v>
+        <v>331.4766880929413</v>
       </c>
       <c r="H26" t="n">
-        <v>97.51671874019279</v>
+        <v>97.5167187401929</v>
       </c>
       <c r="I26" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J26" t="n">
-        <v>128.5384875643908</v>
+        <v>128.5384875643909</v>
       </c>
       <c r="K26" t="n">
-        <v>582.5666423072171</v>
+        <v>582.5666423072172</v>
       </c>
       <c r="L26" t="n">
-        <v>1198.105343723666</v>
+        <v>1198.105343723667</v>
       </c>
       <c r="M26" t="n">
-        <v>1591.491720417047</v>
+        <v>1899.617296132882</v>
       </c>
       <c r="N26" t="n">
-        <v>2289.722872078596</v>
+        <v>2597.848447794432</v>
       </c>
       <c r="O26" t="n">
-        <v>2903.855111257546</v>
+        <v>3211.980686973381</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.328386037731</v>
+        <v>3600.520226791038</v>
       </c>
       <c r="Q26" t="n">
-        <v>3678.427795958911</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="R26" t="n">
-        <v>3678.427795958911</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S26" t="n">
-        <v>3611.564051292014</v>
+        <v>3611.564051292016</v>
       </c>
       <c r="T26" t="n">
-        <v>3478.649284483331</v>
+        <v>3478.649284483333</v>
       </c>
       <c r="U26" t="n">
-        <v>3305.099819795233</v>
+        <v>3305.099819795234</v>
       </c>
       <c r="V26" t="n">
-        <v>3054.146726921019</v>
+        <v>3054.146726921021</v>
       </c>
       <c r="W26" t="n">
-        <v>2781.487866120262</v>
+        <v>2781.487866120264</v>
       </c>
       <c r="X26" t="n">
-        <v>2488.13190232854</v>
+        <v>2488.131902328542</v>
       </c>
       <c r="Y26" t="n">
-        <v>2178.102364822085</v>
+        <v>2178.102364822087</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I27" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J27" t="n">
-        <v>212.3205486553472</v>
+        <v>212.3205486553473</v>
       </c>
       <c r="K27" t="n">
         <v>576.0906474485164</v>
       </c>
       <c r="L27" t="n">
-        <v>1126.628833581216</v>
+        <v>759.4968917307916</v>
       </c>
       <c r="M27" t="n">
-        <v>1441.217988060473</v>
+        <v>1051.294291976511</v>
       </c>
       <c r="N27" t="n">
-        <v>1695.186899129601</v>
+        <v>1305.263203045638</v>
       </c>
       <c r="O27" t="n">
         <v>1905.299040705002</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>566.7589833420761</v>
+        <v>566.7589833420768</v>
       </c>
       <c r="C28" t="n">
-        <v>477.9325948835266</v>
+        <v>477.9325948835273</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9257499405484</v>
+        <v>407.9257499405489</v>
       </c>
       <c r="E28" t="n">
-        <v>340.1224508275128</v>
+        <v>340.1224508275131</v>
       </c>
       <c r="F28" t="n">
-        <v>273.3422977989599</v>
+        <v>273.3422977989601</v>
       </c>
       <c r="G28" t="n">
-        <v>185.0271635782352</v>
+        <v>185.0271635782354</v>
       </c>
       <c r="H28" t="n">
-        <v>112.4997163620376</v>
+        <v>112.4997163620377</v>
       </c>
       <c r="I28" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J28" t="n">
-        <v>147.1708219328281</v>
+        <v>147.170821932828</v>
       </c>
       <c r="K28" t="n">
-        <v>347.4491354406402</v>
+        <v>347.4491354406396</v>
       </c>
       <c r="L28" t="n">
-        <v>637.3055192252427</v>
+        <v>637.3055192252451</v>
       </c>
       <c r="M28" t="n">
-        <v>949.0394661365328</v>
+        <v>949.0394661365351</v>
       </c>
       <c r="N28" t="n">
-        <v>1260.662618676063</v>
+        <v>1260.662618676065</v>
       </c>
       <c r="O28" t="n">
-        <v>1538.474478212272</v>
+        <v>1538.474478212274</v>
       </c>
       <c r="P28" t="n">
-        <v>1764.001776889042</v>
+        <v>1764.001776889043</v>
       </c>
       <c r="Q28" t="n">
-        <v>1860.865579621832</v>
+        <v>1860.865579621833</v>
       </c>
       <c r="R28" t="n">
-        <v>1818.677031825936</v>
+        <v>1818.677031825937</v>
       </c>
       <c r="S28" t="n">
-        <v>1694.516846774632</v>
+        <v>1694.516846774634</v>
       </c>
       <c r="T28" t="n">
-        <v>1549.77472335482</v>
+        <v>1549.774723354822</v>
       </c>
       <c r="U28" t="n">
-        <v>1340.742264109923</v>
+        <v>1340.742264109925</v>
       </c>
       <c r="V28" t="n">
-        <v>1166.167570373394</v>
+        <v>1166.167570373395</v>
       </c>
       <c r="W28" t="n">
-        <v>956.8601948057908</v>
+        <v>956.8601948057918</v>
       </c>
       <c r="X28" t="n">
-        <v>808.9804383771309</v>
+        <v>808.9804383771318</v>
       </c>
       <c r="Y28" t="n">
-        <v>668.2976537029583</v>
+        <v>668.2976537029591</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.612319227322</v>
+        <v>1871.612319227323</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.759596756267</v>
+        <v>1582.759596756269</v>
       </c>
       <c r="D29" t="n">
-        <v>1304.603692618875</v>
+        <v>1304.603692618876</v>
       </c>
       <c r="E29" t="n">
-        <v>998.9252344899878</v>
+        <v>998.9252344899887</v>
       </c>
       <c r="F29" t="n">
-        <v>668.0491241697382</v>
+        <v>668.0491241697387</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4766880929415</v>
+        <v>331.4766880929417</v>
       </c>
       <c r="H29" t="n">
-        <v>97.51671874019279</v>
+        <v>97.51671874019289</v>
       </c>
       <c r="I29" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9441365847438</v>
+        <v>128.5384875643909</v>
       </c>
       <c r="K29" t="n">
-        <v>749.9722913275701</v>
+        <v>582.5666423072172</v>
       </c>
       <c r="L29" t="n">
-        <v>1365.51099274402</v>
+        <v>1198.105343723667</v>
       </c>
       <c r="M29" t="n">
-        <v>1622.004546995331</v>
+        <v>1899.617296132882</v>
       </c>
       <c r="N29" t="n">
-        <v>2289.722872078596</v>
+        <v>2597.848447794432</v>
       </c>
       <c r="O29" t="n">
-        <v>2903.855111257546</v>
+        <v>3211.980686973381</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.328386037731</v>
+        <v>3600.520226791038</v>
       </c>
       <c r="Q29" t="n">
-        <v>3678.427795958911</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="R29" t="n">
-        <v>3678.427795958911</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S29" t="n">
-        <v>3611.564051292015</v>
+        <v>3611.564051292016</v>
       </c>
       <c r="T29" t="n">
-        <v>3478.649284483332</v>
+        <v>3478.649284483333</v>
       </c>
       <c r="U29" t="n">
-        <v>3305.099819795233</v>
+        <v>3305.099819795234</v>
       </c>
       <c r="V29" t="n">
-        <v>3054.14672692102</v>
+        <v>3054.146726921021</v>
       </c>
       <c r="W29" t="n">
-        <v>2781.487866120263</v>
+        <v>2781.487866120264</v>
       </c>
       <c r="X29" t="n">
-        <v>2488.13190232854</v>
+        <v>2488.131902328542</v>
       </c>
       <c r="Y29" t="n">
-        <v>2178.102364822086</v>
+        <v>2178.102364822087</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I30" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J30" t="n">
-        <v>212.3205486553472</v>
+        <v>212.3205486553473</v>
       </c>
       <c r="K30" t="n">
         <v>576.0906474485164</v>
@@ -6549,10 +6549,10 @@
         <v>1126.628833581216</v>
       </c>
       <c r="M30" t="n">
-        <v>1441.217988060473</v>
+        <v>1360.012138117225</v>
       </c>
       <c r="N30" t="n">
-        <v>1695.186899129601</v>
+        <v>1613.981049186353</v>
       </c>
       <c r="O30" t="n">
         <v>1905.299040705002</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.7589833420761</v>
+        <v>566.7589833420767</v>
       </c>
       <c r="C31" t="n">
-        <v>477.9325948835266</v>
+        <v>477.9325948835271</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9257499405484</v>
+        <v>407.9257499405488</v>
       </c>
       <c r="E31" t="n">
-        <v>340.1224508275128</v>
+        <v>340.122450827513</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3422977989599</v>
+        <v>273.3422977989601</v>
       </c>
       <c r="G31" t="n">
-        <v>185.0271635782352</v>
+        <v>185.0271635782354</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4997163620376</v>
+        <v>112.4997163620377</v>
       </c>
       <c r="I31" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J31" t="n">
-        <v>147.1708219328281</v>
+        <v>147.1708219328279</v>
       </c>
       <c r="K31" t="n">
-        <v>347.4491354406402</v>
+        <v>347.4491354406401</v>
       </c>
       <c r="L31" t="n">
-        <v>637.3055192252458</v>
+        <v>637.3055192252456</v>
       </c>
       <c r="M31" t="n">
-        <v>949.0394661365358</v>
+        <v>949.0394661365356</v>
       </c>
       <c r="N31" t="n">
-        <v>1260.662618676063</v>
+        <v>1260.662618676066</v>
       </c>
       <c r="O31" t="n">
-        <v>1538.474478212272</v>
+        <v>1538.474478212275</v>
       </c>
       <c r="P31" t="n">
-        <v>1764.001776889042</v>
+        <v>1764.001776889044</v>
       </c>
       <c r="Q31" t="n">
-        <v>1860.865579621832</v>
+        <v>1860.865579621834</v>
       </c>
       <c r="R31" t="n">
-        <v>1818.677031825936</v>
+        <v>1818.677031825938</v>
       </c>
       <c r="S31" t="n">
-        <v>1694.516846774632</v>
+        <v>1694.516846774634</v>
       </c>
       <c r="T31" t="n">
-        <v>1549.77472335482</v>
+        <v>1549.774723354822</v>
       </c>
       <c r="U31" t="n">
-        <v>1340.742264109923</v>
+        <v>1340.742264109925</v>
       </c>
       <c r="V31" t="n">
-        <v>1166.167570373394</v>
+        <v>1166.167570373395</v>
       </c>
       <c r="W31" t="n">
-        <v>956.8601948057908</v>
+        <v>956.8601948057919</v>
       </c>
       <c r="X31" t="n">
-        <v>808.9804383771309</v>
+        <v>808.980438377132</v>
       </c>
       <c r="Y31" t="n">
-        <v>668.2976537029583</v>
+        <v>668.297653702959</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1304.603692618875</v>
       </c>
       <c r="E32" t="n">
-        <v>998.9252344899884</v>
+        <v>998.9252344899885</v>
       </c>
       <c r="F32" t="n">
         <v>668.0491241697382</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4766880929412</v>
+        <v>331.4766880929413</v>
       </c>
       <c r="H32" t="n">
-        <v>97.51671874019287</v>
+        <v>97.51671874019289</v>
       </c>
       <c r="I32" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J32" t="n">
-        <v>295.9441365847438</v>
+        <v>265.4313100064603</v>
       </c>
       <c r="K32" t="n">
-        <v>749.9722913275701</v>
+        <v>719.4594647492867</v>
       </c>
       <c r="L32" t="n">
-        <v>1365.51099274402</v>
+        <v>1334.998166165736</v>
       </c>
       <c r="M32" t="n">
-        <v>1999.496925536318</v>
+        <v>1591.491720417047</v>
       </c>
       <c r="N32" t="n">
-        <v>2264.754622030004</v>
+        <v>2289.722872078597</v>
       </c>
       <c r="O32" t="n">
-        <v>2878.886861208953</v>
+        <v>2903.855111257547</v>
       </c>
       <c r="P32" t="n">
-        <v>3365.360135989139</v>
+        <v>3390.328386037733</v>
       </c>
       <c r="Q32" t="n">
-        <v>3653.459545910318</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="R32" t="n">
-        <v>3678.427795958911</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S32" t="n">
-        <v>3611.564051292014</v>
+        <v>3611.564051292016</v>
       </c>
       <c r="T32" t="n">
-        <v>3478.649284483332</v>
+        <v>3478.649284483333</v>
       </c>
       <c r="U32" t="n">
         <v>3305.099819795234</v>
@@ -6774,10 +6774,10 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I33" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J33" t="n">
-        <v>212.3205486553472</v>
+        <v>212.3205486553473</v>
       </c>
       <c r="K33" t="n">
         <v>576.0906474485164</v>
@@ -6786,10 +6786,10 @@
         <v>1126.628833581216</v>
       </c>
       <c r="M33" t="n">
-        <v>1441.217988060473</v>
+        <v>1360.012138117225</v>
       </c>
       <c r="N33" t="n">
-        <v>1695.186899129601</v>
+        <v>1613.981049186353</v>
       </c>
       <c r="O33" t="n">
         <v>1905.299040705002</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>566.7589833420772</v>
+        <v>566.7589833420768</v>
       </c>
       <c r="C34" t="n">
-        <v>477.9325948835276</v>
+        <v>477.9325948835273</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9257499405492</v>
+        <v>407.9257499405489</v>
       </c>
       <c r="E34" t="n">
-        <v>340.1224508275135</v>
+        <v>340.1224508275131</v>
       </c>
       <c r="F34" t="n">
-        <v>273.3422977989605</v>
+        <v>273.3422977989601</v>
       </c>
       <c r="G34" t="n">
-        <v>185.0271635782358</v>
+        <v>185.0271635782354</v>
       </c>
       <c r="H34" t="n">
-        <v>112.4997163620381</v>
+        <v>112.4997163620377</v>
       </c>
       <c r="I34" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J34" t="n">
-        <v>147.1708219328277</v>
+        <v>147.170821932828</v>
       </c>
       <c r="K34" t="n">
-        <v>347.4491354406397</v>
+        <v>347.4491354406401</v>
       </c>
       <c r="L34" t="n">
-        <v>637.3055192252452</v>
+        <v>637.3055192252457</v>
       </c>
       <c r="M34" t="n">
-        <v>949.0394661365356</v>
+        <v>949.0394661365357</v>
       </c>
       <c r="N34" t="n">
         <v>1260.662618676066</v>
       </c>
       <c r="O34" t="n">
-        <v>1538.474478212275</v>
+        <v>1538.474478212274</v>
       </c>
       <c r="P34" t="n">
-        <v>1764.001776889044</v>
+        <v>1764.001776889043</v>
       </c>
       <c r="Q34" t="n">
-        <v>1860.865579621834</v>
+        <v>1860.865579621833</v>
       </c>
       <c r="R34" t="n">
-        <v>1818.677031825938</v>
+        <v>1818.677031825937</v>
       </c>
       <c r="S34" t="n">
         <v>1694.516846774634</v>
@@ -6895,13 +6895,13 @@
         <v>1166.167570373395</v>
       </c>
       <c r="W34" t="n">
-        <v>956.8601948057922</v>
+        <v>956.8601948057918</v>
       </c>
       <c r="X34" t="n">
-        <v>808.9804383771323</v>
+        <v>808.9804383771318</v>
       </c>
       <c r="Y34" t="n">
-        <v>668.2976537029595</v>
+        <v>668.2976537029591</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817076</v>
       </c>
       <c r="C35" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148577</v>
       </c>
       <c r="D35" t="n">
-        <v>963.8659528137382</v>
+        <v>963.8659528137389</v>
       </c>
       <c r="E35" t="n">
-        <v>732.0242284874066</v>
+        <v>732.0242284874073</v>
       </c>
       <c r="F35" t="n">
-        <v>474.9848519697118</v>
+        <v>474.9848519697125</v>
       </c>
       <c r="G35" t="n">
         <v>212.2491496954707</v>
@@ -6935,28 +6935,28 @@
         <v>52.12591414527761</v>
       </c>
       <c r="J35" t="n">
-        <v>274.5014948108432</v>
+        <v>274.5014948108433</v>
       </c>
       <c r="K35" t="n">
-        <v>407.6256911082164</v>
+        <v>728.5296495536696</v>
       </c>
       <c r="L35" t="n">
-        <v>609.6797901197201</v>
+        <v>930.5837485651734</v>
       </c>
       <c r="M35" t="n">
-        <v>1254.737977667531</v>
+        <v>1187.077302816484</v>
       </c>
       <c r="N35" t="n">
-        <v>1899.796165215341</v>
+        <v>1452.33499931017</v>
       </c>
       <c r="O35" t="n">
-        <v>2136.936224944173</v>
+        <v>1806.754772513923</v>
       </c>
       <c r="P35" t="n">
-        <v>2318.196297342701</v>
+        <v>2293.228047294109</v>
       </c>
       <c r="Q35" t="n">
-        <v>2606.295707263881</v>
+        <v>2581.327457215288</v>
       </c>
       <c r="R35" t="n">
         <v>2606.295707263881</v>
@@ -6968,19 +6968,19 @@
         <v>2547.217674257753</v>
       </c>
       <c r="U35" t="n">
-        <v>2447.504943372209</v>
+        <v>2447.50494337221</v>
       </c>
       <c r="V35" t="n">
-        <v>2270.388584300551</v>
+        <v>2270.388584300552</v>
       </c>
       <c r="W35" t="n">
         <v>2071.56645730235</v>
       </c>
       <c r="X35" t="n">
-        <v>1852.047227313183</v>
+        <v>1852.047227313184</v>
       </c>
       <c r="Y35" t="n">
-        <v>1615.854423609284</v>
+        <v>1615.854423609285</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>189.3801975165225</v>
       </c>
       <c r="H36" t="n">
-        <v>90.5598768826743</v>
+        <v>90.55987688267429</v>
       </c>
       <c r="I36" t="n">
         <v>52.12591414527761</v>
       </c>
       <c r="J36" t="n">
-        <v>66.04778189444187</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K36" t="n">
-        <v>167.9972960451582</v>
+        <v>554.6480056746158</v>
       </c>
       <c r="L36" t="n">
-        <v>516.9588419881453</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M36" t="n">
-        <v>1162.017029535956</v>
+        <v>1345.129791156148</v>
       </c>
       <c r="N36" t="n">
-        <v>1807.075217083766</v>
+        <v>1599.098702225275</v>
       </c>
       <c r="O36" t="n">
-        <v>2407.111054743129</v>
+        <v>2199.134539884639</v>
       </c>
       <c r="P36" t="n">
-        <v>2556.411505927724</v>
+        <v>2348.434991069233</v>
       </c>
       <c r="Q36" t="n">
         <v>2606.295707263881</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.60707354121185</v>
+        <v>394.5001300850373</v>
       </c>
       <c r="C37" t="n">
-        <v>71.61741888521765</v>
+        <v>225.5639471571303</v>
       </c>
       <c r="D37" t="n">
-        <v>71.61741888521765</v>
+        <v>225.5639471571303</v>
       </c>
       <c r="E37" t="n">
-        <v>71.61741888521765</v>
+        <v>225.5639471571303</v>
       </c>
       <c r="F37" t="n">
-        <v>71.61741888521765</v>
+        <v>225.5639471571303</v>
       </c>
       <c r="G37" t="n">
-        <v>57.13901846704827</v>
+        <v>57.13901846704826</v>
       </c>
       <c r="H37" t="n">
-        <v>57.13901846704827</v>
+        <v>57.13901846704826</v>
       </c>
       <c r="I37" t="n">
-        <v>57.13901846704827</v>
+        <v>57.13901846704826</v>
       </c>
       <c r="J37" t="n">
         <v>52.12591414527761</v>
       </c>
       <c r="K37" t="n">
-        <v>173.8886180936725</v>
+        <v>173.8886180936726</v>
       </c>
       <c r="L37" t="n">
-        <v>385.2293923188608</v>
+        <v>385.229392318861</v>
       </c>
       <c r="M37" t="n">
-        <v>618.4477296707337</v>
+        <v>618.4477296707338</v>
       </c>
       <c r="N37" t="n">
-        <v>851.5552726508467</v>
+        <v>851.555272650847</v>
       </c>
       <c r="O37" t="n">
-        <v>1050.851522627638</v>
+        <v>1050.851522627639</v>
       </c>
       <c r="P37" t="n">
         <v>1197.863211744991</v>
       </c>
       <c r="Q37" t="n">
-        <v>1216.211404918363</v>
+        <v>1216.211404918364</v>
       </c>
       <c r="R37" t="n">
-        <v>1216.211404918363</v>
+        <v>1216.211404918364</v>
       </c>
       <c r="S37" t="n">
-        <v>1011.941425397702</v>
+        <v>1159.34738517162</v>
       </c>
       <c r="T37" t="n">
-        <v>787.0895075085332</v>
+        <v>1088.441995554363</v>
       </c>
       <c r="U37" t="n">
-        <v>497.9472537942785</v>
+        <v>953.2462701120211</v>
       </c>
       <c r="V37" t="n">
-        <v>390.6687253623087</v>
+        <v>852.5083101780469</v>
       </c>
       <c r="W37" t="n">
-        <v>255.1980835972608</v>
+        <v>717.037668412999</v>
       </c>
       <c r="X37" t="n">
-        <v>181.1550609711562</v>
+        <v>489.0481175149816</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.3090100995388</v>
+        <v>422.2020666433642</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1383.201111817076</v>
+        <v>1383.201111817075</v>
       </c>
       <c r="C38" t="n">
-        <v>1168.185123148577</v>
+        <v>1168.185123148576</v>
       </c>
       <c r="D38" t="n">
-        <v>963.8659528137389</v>
+        <v>963.8659528137384</v>
       </c>
       <c r="E38" t="n">
         <v>732.0242284874073</v>
@@ -7175,22 +7175,22 @@
         <v>107.0958457904902</v>
       </c>
       <c r="K38" t="n">
-        <v>561.1240005333165</v>
+        <v>240.2200420878635</v>
       </c>
       <c r="L38" t="n">
-        <v>763.1780995448202</v>
+        <v>855.7587435043132</v>
       </c>
       <c r="M38" t="n">
-        <v>1268.105496375641</v>
+        <v>1500.816931052124</v>
       </c>
       <c r="N38" t="n">
-        <v>1913.163683923451</v>
+        <v>1766.074627545809</v>
       </c>
       <c r="O38" t="n">
-        <v>2150.303743652283</v>
+        <v>2360.495584405588</v>
       </c>
       <c r="P38" t="n">
-        <v>2318.196297342701</v>
+        <v>2528.388138096007</v>
       </c>
       <c r="Q38" t="n">
         <v>2606.295707263881</v>
@@ -7211,13 +7211,13 @@
         <v>2270.388584300552</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.566457302351</v>
+        <v>2071.56645730235</v>
       </c>
       <c r="X38" t="n">
-        <v>1852.047227313184</v>
+        <v>1852.047227313183</v>
       </c>
       <c r="Y38" t="n">
-        <v>1615.854423609285</v>
+        <v>1615.854423609284</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>189.3801975165225</v>
       </c>
       <c r="H39" t="n">
-        <v>90.5598768826743</v>
+        <v>90.55987688267429</v>
       </c>
       <c r="I39" t="n">
         <v>52.12591414527761</v>
       </c>
       <c r="J39" t="n">
-        <v>66.04778189444187</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K39" t="n">
-        <v>167.9972960451582</v>
+        <v>292.827421032163</v>
       </c>
       <c r="L39" t="n">
-        <v>516.9588419881453</v>
+        <v>843.3656071648629</v>
       </c>
       <c r="M39" t="n">
-        <v>1162.017029535956</v>
+        <v>1076.748911700872</v>
       </c>
       <c r="N39" t="n">
-        <v>1807.075217083766</v>
+        <v>1330.717822769999</v>
       </c>
       <c r="O39" t="n">
-        <v>2407.111054743129</v>
+        <v>1930.753660429363</v>
       </c>
       <c r="P39" t="n">
-        <v>2556.411505927724</v>
+        <v>2395.332252567495</v>
       </c>
       <c r="Q39" t="n">
         <v>2606.295707263881</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>394.5001300850373</v>
+        <v>86.60707354121183</v>
       </c>
       <c r="C40" t="n">
-        <v>225.5639471571304</v>
+        <v>71.61741888521763</v>
       </c>
       <c r="D40" t="n">
-        <v>225.5639471571304</v>
+        <v>71.61741888521763</v>
       </c>
       <c r="E40" t="n">
-        <v>225.5639471571304</v>
+        <v>71.61741888521763</v>
       </c>
       <c r="F40" t="n">
-        <v>225.5639471571304</v>
+        <v>71.61741888521763</v>
       </c>
       <c r="G40" t="n">
-        <v>57.13901846704827</v>
+        <v>57.13901846704826</v>
       </c>
       <c r="H40" t="n">
-        <v>57.13901846704827</v>
+        <v>57.13901846704826</v>
       </c>
       <c r="I40" t="n">
-        <v>57.13901846704827</v>
+        <v>57.13901846704826</v>
       </c>
       <c r="J40" t="n">
         <v>52.12591414527761</v>
       </c>
       <c r="K40" t="n">
-        <v>173.8886180936725</v>
+        <v>173.8886180936726</v>
       </c>
       <c r="L40" t="n">
-        <v>385.2293923188608</v>
+        <v>385.229392318861</v>
       </c>
       <c r="M40" t="n">
-        <v>618.4477296707337</v>
+        <v>618.4477296707338</v>
       </c>
       <c r="N40" t="n">
-        <v>851.5552726508467</v>
+        <v>851.555272650847</v>
       </c>
       <c r="O40" t="n">
-        <v>1050.851522627638</v>
+        <v>1050.851522627639</v>
       </c>
       <c r="P40" t="n">
         <v>1197.863211744991</v>
       </c>
       <c r="Q40" t="n">
-        <v>1216.211404918363</v>
+        <v>1216.211404918364</v>
       </c>
       <c r="R40" t="n">
-        <v>1216.211404918363</v>
+        <v>1216.211404918364</v>
       </c>
       <c r="S40" t="n">
-        <v>1165.887953669615</v>
+        <v>1159.34738517162</v>
       </c>
       <c r="T40" t="n">
-        <v>1094.982564052359</v>
+        <v>934.4954672824504</v>
       </c>
       <c r="U40" t="n">
-        <v>959.7868386100166</v>
+        <v>645.3532135681957</v>
       </c>
       <c r="V40" t="n">
-        <v>859.0488786760425</v>
+        <v>390.6687253623087</v>
       </c>
       <c r="W40" t="n">
-        <v>723.5782369109945</v>
+        <v>255.1980835972608</v>
       </c>
       <c r="X40" t="n">
-        <v>649.5352142848899</v>
+        <v>181.1550609711562</v>
       </c>
       <c r="Y40" t="n">
-        <v>428.7426351413598</v>
+        <v>114.3090100995388</v>
       </c>
     </row>
     <row r="41">
@@ -7388,46 +7388,46 @@
         <v>1383.201111817076</v>
       </c>
       <c r="C41" t="n">
-        <v>1168.185123148577</v>
+        <v>1168.185123148578</v>
       </c>
       <c r="D41" t="n">
-        <v>963.8659528137389</v>
+        <v>963.8659528137398</v>
       </c>
       <c r="E41" t="n">
-        <v>732.0242284874073</v>
+        <v>732.0242284874082</v>
       </c>
       <c r="F41" t="n">
-        <v>474.9848519697125</v>
+        <v>474.9848519697134</v>
       </c>
       <c r="G41" t="n">
         <v>212.2491496954707</v>
       </c>
       <c r="H41" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="I41" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="J41" t="n">
         <v>107.0958457904902</v>
       </c>
       <c r="K41" t="n">
-        <v>493.7854336270657</v>
+        <v>240.2200420878635</v>
       </c>
       <c r="L41" t="n">
-        <v>695.8395326385694</v>
+        <v>855.7587435043132</v>
       </c>
       <c r="M41" t="n">
-        <v>952.3330868898804</v>
+        <v>1500.816931052124</v>
       </c>
       <c r="N41" t="n">
-        <v>1217.590783383566</v>
+        <v>2123.355524676757</v>
       </c>
       <c r="O41" t="n">
-        <v>1831.723022562515</v>
+        <v>2360.495584405589</v>
       </c>
       <c r="P41" t="n">
-        <v>2318.196297342701</v>
+        <v>2528.388138096007</v>
       </c>
       <c r="Q41" t="n">
         <v>2606.295707263881</v>
@@ -7439,22 +7439,22 @@
         <v>2606.295707263881</v>
       </c>
       <c r="T41" t="n">
-        <v>2547.217674257753</v>
+        <v>2547.217674257754</v>
       </c>
       <c r="U41" t="n">
-        <v>2447.50494337221</v>
+        <v>2447.504943372211</v>
       </c>
       <c r="V41" t="n">
-        <v>2270.388584300552</v>
+        <v>2270.388584300553</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.566457302351</v>
+        <v>2071.566457302352</v>
       </c>
       <c r="X41" t="n">
-        <v>1852.047227313184</v>
+        <v>1852.047227313185</v>
       </c>
       <c r="Y41" t="n">
-        <v>1615.854423609285</v>
+        <v>1615.854423609286</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>955.7640580471563</v>
+        <v>955.7640580471573</v>
       </c>
       <c r="C42" t="n">
-        <v>781.3110287660293</v>
+        <v>781.3110287660303</v>
       </c>
       <c r="D42" t="n">
-        <v>632.376619104778</v>
+        <v>632.376619104779</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1391640993224</v>
+        <v>473.1391640993235</v>
       </c>
       <c r="F42" t="n">
-        <v>326.6046061262074</v>
+        <v>326.6046061262085</v>
       </c>
       <c r="G42" t="n">
-        <v>189.3801975165225</v>
+        <v>189.3801975165237</v>
       </c>
       <c r="H42" t="n">
         <v>90.5598768826743</v>
       </c>
       <c r="I42" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="J42" t="n">
-        <v>66.04778189444187</v>
+        <v>190.8779068814467</v>
       </c>
       <c r="K42" t="n">
-        <v>167.9972960451582</v>
+        <v>356.3443519394083</v>
       </c>
       <c r="L42" t="n">
-        <v>718.5354821778578</v>
+        <v>906.8825380721081</v>
       </c>
       <c r="M42" t="n">
-        <v>1363.593669725668</v>
+        <v>1551.940725619919</v>
       </c>
       <c r="N42" t="n">
-        <v>1807.075217083766</v>
+        <v>2196.998913167729</v>
       </c>
       <c r="O42" t="n">
-        <v>2407.111054743129</v>
+        <v>2407.11105474313</v>
       </c>
       <c r="P42" t="n">
-        <v>2556.411505927724</v>
+        <v>2556.411505927725</v>
       </c>
       <c r="Q42" t="n">
         <v>2606.295707263881</v>
       </c>
       <c r="R42" t="n">
-        <v>2598.656161719378</v>
+        <v>2598.656161719379</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.219848663941</v>
+        <v>2453.219848663942</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.105170892339</v>
+        <v>2257.10517089234</v>
       </c>
       <c r="U42" t="n">
-        <v>2028.980658997655</v>
+        <v>2028.980658997656</v>
       </c>
       <c r="V42" t="n">
-        <v>1793.828550765912</v>
+        <v>1793.828550765914</v>
       </c>
       <c r="W42" t="n">
-        <v>1539.591194037711</v>
+        <v>1539.591194037712</v>
       </c>
       <c r="X42" t="n">
-        <v>1331.739693832178</v>
+        <v>1331.739693832179</v>
       </c>
       <c r="Y42" t="n">
-        <v>1123.979395067224</v>
+        <v>1123.979395067225</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.60707354121185</v>
+        <v>247.0941703111204</v>
       </c>
       <c r="C43" t="n">
-        <v>71.61741888521765</v>
+        <v>232.1045156551262</v>
       </c>
       <c r="D43" t="n">
-        <v>71.61741888521765</v>
+        <v>232.1045156551262</v>
       </c>
       <c r="E43" t="n">
-        <v>71.61741888521765</v>
+        <v>232.1045156551262</v>
       </c>
       <c r="F43" t="n">
-        <v>71.61741888521765</v>
+        <v>85.21456815721584</v>
       </c>
       <c r="G43" t="n">
         <v>57.13901846704827</v>
@@ -7567,52 +7567,52 @@
         <v>57.13901846704827</v>
       </c>
       <c r="J43" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="K43" t="n">
-        <v>173.8886180936725</v>
+        <v>173.8886180936726</v>
       </c>
       <c r="L43" t="n">
-        <v>385.2293923188608</v>
+        <v>385.229392318861</v>
       </c>
       <c r="M43" t="n">
-        <v>618.4477296707337</v>
+        <v>618.4477296707338</v>
       </c>
       <c r="N43" t="n">
-        <v>851.5552726508467</v>
+        <v>851.555272650847</v>
       </c>
       <c r="O43" t="n">
-        <v>1050.851522627638</v>
+        <v>1050.851522627639</v>
       </c>
       <c r="P43" t="n">
         <v>1197.863211744991</v>
       </c>
       <c r="Q43" t="n">
-        <v>1216.211404918363</v>
+        <v>1216.211404918364</v>
       </c>
       <c r="R43" t="n">
-        <v>1216.211404918363</v>
+        <v>1216.211404918364</v>
       </c>
       <c r="S43" t="n">
-        <v>1011.941425397702</v>
+        <v>1011.941425397703</v>
       </c>
       <c r="T43" t="n">
-        <v>941.0360357804459</v>
+        <v>787.0895075085334</v>
       </c>
       <c r="U43" t="n">
-        <v>651.8937820661913</v>
+        <v>651.8937820661914</v>
       </c>
       <c r="V43" t="n">
-        <v>397.2092938603045</v>
+        <v>551.1558221322173</v>
       </c>
       <c r="W43" t="n">
-        <v>261.7386520952566</v>
+        <v>415.6851803671694</v>
       </c>
       <c r="X43" t="n">
-        <v>181.1550609711562</v>
+        <v>341.6421577410648</v>
       </c>
       <c r="Y43" t="n">
-        <v>114.3090100995388</v>
+        <v>274.7961068694474</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>52.12591414527761</v>
       </c>
       <c r="J44" t="n">
-        <v>107.0958457904902</v>
+        <v>274.5014948108433</v>
       </c>
       <c r="K44" t="n">
-        <v>240.2200420878634</v>
+        <v>407.6256911082165</v>
       </c>
       <c r="L44" t="n">
-        <v>855.7587435043129</v>
+        <v>609.6797901197203</v>
       </c>
       <c r="M44" t="n">
-        <v>1500.816931052123</v>
+        <v>866.1733443710314</v>
       </c>
       <c r="N44" t="n">
-        <v>2123.355524676756</v>
+        <v>1511.231531918842</v>
       </c>
       <c r="O44" t="n">
-        <v>2360.495584405588</v>
+        <v>1806.754772513923</v>
       </c>
       <c r="P44" t="n">
-        <v>2528.388138096007</v>
+        <v>2293.228047294109</v>
       </c>
       <c r="Q44" t="n">
-        <v>2606.295707263881</v>
+        <v>2581.327457215288</v>
       </c>
       <c r="R44" t="n">
         <v>2606.295707263881</v>
@@ -7719,31 +7719,31 @@
         <v>189.3801975165225</v>
       </c>
       <c r="H45" t="n">
-        <v>90.5598768826743</v>
+        <v>90.55987688267429</v>
       </c>
       <c r="I45" t="n">
         <v>52.12591414527761</v>
       </c>
       <c r="J45" t="n">
-        <v>66.04778189444187</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K45" t="n">
-        <v>167.9972960451582</v>
+        <v>554.6480056746158</v>
       </c>
       <c r="L45" t="n">
-        <v>718.5354821778578</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M45" t="n">
-        <v>1363.593669725668</v>
+        <v>1419.775346286572</v>
       </c>
       <c r="N45" t="n">
-        <v>1807.075217083766</v>
+        <v>1673.7442573557</v>
       </c>
       <c r="O45" t="n">
-        <v>2407.111054743129</v>
+        <v>1883.856398931101</v>
       </c>
       <c r="P45" t="n">
-        <v>2556.411505927724</v>
+        <v>2348.434991069233</v>
       </c>
       <c r="Q45" t="n">
         <v>2606.295707263881</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.0941703111201</v>
+        <v>358.2852701389837</v>
       </c>
       <c r="C46" t="n">
-        <v>78.15798738321314</v>
+        <v>343.2956154829895</v>
       </c>
       <c r="D46" t="n">
-        <v>78.15798738321314</v>
+        <v>343.2956154829895</v>
       </c>
       <c r="E46" t="n">
-        <v>78.15798738321314</v>
+        <v>343.2956154829895</v>
       </c>
       <c r="F46" t="n">
-        <v>78.15798738321314</v>
+        <v>343.2956154829895</v>
       </c>
       <c r="G46" t="n">
-        <v>57.13901846704827</v>
+        <v>328.8172150648202</v>
       </c>
       <c r="H46" t="n">
-        <v>57.13901846704827</v>
+        <v>176.1799733792651</v>
       </c>
       <c r="I46" t="n">
-        <v>57.13901846704827</v>
+        <v>57.13901846704826</v>
       </c>
       <c r="J46" t="n">
         <v>52.12591414527761</v>
       </c>
       <c r="K46" t="n">
-        <v>173.8886180936725</v>
+        <v>173.8886180936726</v>
       </c>
       <c r="L46" t="n">
-        <v>385.2293923188608</v>
+        <v>385.229392318861</v>
       </c>
       <c r="M46" t="n">
-        <v>618.4477296707337</v>
+        <v>618.4477296707338</v>
       </c>
       <c r="N46" t="n">
-        <v>851.5552726508467</v>
+        <v>851.555272650847</v>
       </c>
       <c r="O46" t="n">
-        <v>1050.851522627638</v>
+        <v>1050.851522627639</v>
       </c>
       <c r="P46" t="n">
         <v>1197.863211744991</v>
       </c>
       <c r="Q46" t="n">
-        <v>1216.211404918363</v>
+        <v>1216.211404918364</v>
       </c>
       <c r="R46" t="n">
-        <v>1216.211404918363</v>
+        <v>1216.211404918364</v>
       </c>
       <c r="S46" t="n">
         <v>1165.887953669615</v>
@@ -7837,19 +7837,19 @@
         <v>1094.982564052359</v>
       </c>
       <c r="U46" t="n">
-        <v>959.7868386100166</v>
+        <v>917.0314101659675</v>
       </c>
       <c r="V46" t="n">
-        <v>859.0488786760425</v>
+        <v>662.3469219600806</v>
       </c>
       <c r="W46" t="n">
-        <v>723.5782369109945</v>
+        <v>526.8762801950328</v>
       </c>
       <c r="X46" t="n">
-        <v>495.5886860129772</v>
+        <v>452.8332575689282</v>
       </c>
       <c r="Y46" t="n">
-        <v>428.7426351413598</v>
+        <v>385.9872066973107</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.49596527844466</v>
+        <v>40.49596527844463</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>143.5919575107645</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.3302893607147</v>
+        <v>74.83121153107149</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>15.1209795429418</v>
+        <v>225.089265803165</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>235.454954019497</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>25.37766628364656</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>15.1209795429418</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>12.77427514326055</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>13.3582438542126</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>307.8704850172977</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>287.0769430646523</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>25.37766628364787</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>40.34143413747955</v>
+        <v>40.34143413748041</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>40.49596527844466</v>
+        <v>40.49596527844463</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>25.37766628364656</v>
+        <v>25.37766628364787</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>290.341213162861</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>94.82166220526568</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>38.14371260210768</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>40.49596527844466</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>48.40039934281097</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>48.40039934281288</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>138.2755782243122</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>222.8757435628676</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.49596527844466</v>
+        <v>40.49596527844463</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>82.026111053786</v>
+        <v>59.00413708051531</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,22 +10118,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>406.5258874642225</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>222.8757435628676</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.49596527844466</v>
+        <v>40.49596527844463</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>82.026111053786</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.0261110537856</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>138.2755782243126</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,10 +10355,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>381.3054328696848</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>40.49596527844463</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>82.026111053786</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.0261110537856</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>392.4895285823227</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>383.6368596506316</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>118.4643570453751</v>
       </c>
       <c r="P35" t="n">
-        <v>13.50254414960645</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>40.49596527844466</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>167.2275774350626</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>415.8332151634361</v>
+        <v>6.62656041699347</v>
       </c>
       <c r="N36" t="n">
-        <v>395.0396732107906</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>250.9432753328383</v>
+        <v>392.4895285823226</v>
       </c>
       <c r="N38" t="n">
-        <v>383.6368596506315</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>360.8897950817654</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.49596527844466</v>
+        <v>40.49596527844463</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>167.2275774350626</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>415.8332151634361</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>395.0396732107906</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>162.7063165254836</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,28 +11060,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>256.1266581204064</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>392.4895285823228</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>360.8897950817658</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.49596527844466</v>
+        <v>40.49596527844463</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>64.15851606792447</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>415.8332151634361</v>
+        <v>415.8332151634363</v>
       </c>
       <c r="N42" t="n">
-        <v>191.4269053423942</v>
+        <v>395.0396732107908</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>392.4895285823227</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>360.8897950817655</v>
+        <v>383.6368596506315</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>58.9729099659082</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.49596527844466</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>415.8332151634361</v>
+        <v>82.02611105378594</v>
       </c>
       <c r="N45" t="n">
-        <v>191.4269053423942</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279.1418457774242</v>
+        <v>279.1418457774243</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>261.6808958849513</v>
       </c>
       <c r="D11" t="n">
-        <v>251.0910457346266</v>
+        <v>251.0910457346267</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>308.9234123546364</v>
+        <v>247.8820988142189</v>
       </c>
       <c r="H11" t="n">
-        <v>207.3370702978283</v>
+        <v>207.3370702978285</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.91180785883456</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>107.3023197792037</v>
+        <v>107.3023197792038</v>
       </c>
       <c r="U11" t="n">
-        <v>147.5306706798247</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>224.1602625840785</v>
+        <v>224.1602625840786</v>
       </c>
       <c r="W11" t="n">
-        <v>245.6489728313566</v>
+        <v>245.6489728313567</v>
       </c>
       <c r="X11" t="n">
-        <v>11.19710380587441</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>279.1418457774242</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>261.6808958849512</v>
+        <v>261.6808958849513</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>272.0207589183791</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>172.8063422039927</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>41.91180785883463</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.3023197792038</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.6489728313567</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>266.1391047924128</v>
       </c>
       <c r="Y14" t="n">
-        <v>282.6459427699972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>22.56458067128803</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>22.56458067128838</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>22.56458067128672</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>22.56458067128784</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61445.72540377787</v>
+        <v>61445.72540377785</v>
       </c>
       <c r="C2" t="n">
-        <v>61445.72540377788</v>
+        <v>61445.72540377785</v>
       </c>
       <c r="D2" t="n">
-        <v>61445.72540377789</v>
+        <v>61445.72540377785</v>
       </c>
       <c r="E2" t="n">
-        <v>50687.39300495028</v>
+        <v>50687.39300495025</v>
       </c>
       <c r="F2" t="n">
-        <v>55038.06076301734</v>
+        <v>55038.06076301735</v>
       </c>
       <c r="G2" t="n">
-        <v>61443.42219321369</v>
+        <v>61443.42219321368</v>
       </c>
       <c r="H2" t="n">
-        <v>61443.42219321369</v>
+        <v>61443.42219321366</v>
       </c>
       <c r="I2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982129</v>
       </c>
       <c r="M2" t="n">
+        <v>61578.13273982129</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61578.13273982129</v>
+      </c>
+      <c r="O2" t="n">
         <v>61578.1327398213</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>61578.1327398213</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982129</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982131</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26378,16 @@
         <v>53805.21405764105</v>
       </c>
       <c r="G3" t="n">
-        <v>63446.95721973108</v>
+        <v>63446.95721973102</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1546.174978532584</v>
+        <v>1546.174978532644</v>
       </c>
       <c r="J3" t="n">
-        <v>96855.72589324026</v>
+        <v>96855.7258932402</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>142908.8103538439</v>
+        <v>142908.8103538438</v>
       </c>
       <c r="F4" t="n">
         <v>168497.449603743</v>
@@ -26433,7 +26433,7 @@
         <v>217171.7787696231</v>
       </c>
       <c r="H4" t="n">
-        <v>217171.7787696232</v>
+        <v>217171.7787696231</v>
       </c>
       <c r="I4" t="n">
         <v>217964.0846343738</v>
@@ -26448,16 +26448,16 @@
         <v>207063.1162296206</v>
       </c>
       <c r="M4" t="n">
-        <v>213872.9610610159</v>
+        <v>213872.9610610158</v>
       </c>
       <c r="N4" t="n">
-        <v>213872.9610610159</v>
+        <v>213872.9610610158</v>
       </c>
       <c r="O4" t="n">
         <v>213872.9610610158</v>
       </c>
       <c r="P4" t="n">
-        <v>213872.9610610159</v>
+        <v>213872.9610610158</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>45458.11311732123</v>
+        <v>45458.11311732125</v>
       </c>
       <c r="F5" t="n">
-        <v>56875.42608265274</v>
+        <v>56875.42608265275</v>
       </c>
       <c r="G5" t="n">
-        <v>63542.8288907847</v>
+        <v>63542.82889078472</v>
       </c>
       <c r="H5" t="n">
-        <v>63542.8288907847</v>
+        <v>63542.82889078472</v>
       </c>
       <c r="I5" t="n">
-        <v>63896.34530616665</v>
+        <v>63896.34530616667</v>
       </c>
       <c r="J5" t="n">
         <v>77694.49512968952</v>
@@ -26497,19 +26497,19 @@
         <v>77694.49512968952</v>
       </c>
       <c r="L5" t="n">
-        <v>77694.4951296895</v>
+        <v>77694.49512968952</v>
       </c>
       <c r="M5" t="n">
-        <v>67543.39395183159</v>
+        <v>67543.3939518316</v>
       </c>
       <c r="N5" t="n">
-        <v>67543.39395183159</v>
+        <v>67543.3939518316</v>
       </c>
       <c r="O5" t="n">
-        <v>67543.39395183159</v>
+        <v>67543.39395183162</v>
       </c>
       <c r="P5" t="n">
-        <v>67543.39395183159</v>
+        <v>67543.3939518316</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419206.494868615</v>
+        <v>-419210.9084464831</v>
       </c>
       <c r="C6" t="n">
-        <v>-419206.4948686149</v>
+        <v>-419210.9084464831</v>
       </c>
       <c r="D6" t="n">
-        <v>-419206.4948686149</v>
+        <v>-419210.9084464831</v>
       </c>
       <c r="E6" t="n">
-        <v>-883833.0645492839</v>
+        <v>-884196.089207113</v>
       </c>
       <c r="F6" t="n">
-        <v>-224140.0289810195</v>
+        <v>-224358.0313802463</v>
       </c>
       <c r="G6" t="n">
-        <v>-282718.1426869252</v>
+        <v>-282722.6330384787</v>
       </c>
       <c r="H6" t="n">
-        <v>-219271.1854671942</v>
+        <v>-219275.6758187477</v>
       </c>
       <c r="I6" t="n">
         <v>-221828.4721792518</v>
       </c>
       <c r="J6" t="n">
-        <v>-320035.2045127292</v>
+        <v>-320035.204512729</v>
       </c>
       <c r="K6" t="n">
-        <v>-223179.4786194889</v>
+        <v>-223179.4786194888</v>
       </c>
       <c r="L6" t="n">
         <v>-286626.4358392198</v>
@@ -26561,7 +26561,7 @@
         <v>-219838.2222730262</v>
       </c>
       <c r="P6" t="n">
-        <v>-219838.2222730262</v>
+        <v>-219838.2222730261</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="F2" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="G2" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="H2" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="I2" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="J2" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="K2" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="L2" t="n">
         <v>79.3086965246638</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="F3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="G3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="H3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="I3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="J3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="K3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="L3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="M3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="N3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="O3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="P3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.8264439505635</v>
+        <v>355.8264439505639</v>
       </c>
       <c r="F4" t="n">
-        <v>543.6111966698318</v>
+        <v>543.6111966698321</v>
       </c>
       <c r="G4" t="n">
-        <v>543.6111966698318</v>
+        <v>543.6111966698321</v>
       </c>
       <c r="H4" t="n">
-        <v>543.6111966698318</v>
+        <v>543.6111966698321</v>
       </c>
       <c r="I4" t="n">
-        <v>549.4256113965084</v>
+        <v>549.425611396509</v>
       </c>
       <c r="J4" t="n">
-        <v>919.6069489897277</v>
+        <v>919.606948989728</v>
       </c>
       <c r="K4" t="n">
-        <v>919.6069489897277</v>
+        <v>919.606948989728</v>
       </c>
       <c r="L4" t="n">
-        <v>919.6069489897277</v>
+        <v>919.606948989728</v>
       </c>
       <c r="M4" t="n">
         <v>651.5739268159701</v>
@@ -26826,7 +26826,7 @@
         <v>651.5739268159701</v>
       </c>
       <c r="O4" t="n">
-        <v>651.5739268159701</v>
+        <v>651.5739268159704</v>
       </c>
       <c r="P4" t="n">
         <v>651.5739268159701</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175275</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.8264439505635</v>
+        <v>355.8264439505639</v>
       </c>
       <c r="F4" t="n">
         <v>187.7847527192682</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.814414726676659</v>
+        <v>5.814414726676887</v>
       </c>
       <c r="J4" t="n">
-        <v>370.1813375932193</v>
+        <v>370.181337593219</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>355.8264439505635</v>
+        <v>355.8264439505639</v>
       </c>
       <c r="N4" t="n">
         <v>187.7847527192682</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="C11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="D11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="E11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="F11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="G11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="H11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="I11" t="n">
         <v>103.0173777174683</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="T11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="U11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="V11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="W11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="X11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="D12" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="H12" t="n">
         <v>97.83211742750971</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057075</v>
       </c>
       <c r="S12" t="n">
-        <v>103.5919958860564</v>
+        <v>71.96397790297247</v>
       </c>
       <c r="T12" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="U12" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="V12" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="X12" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="Y12" t="n">
-        <v>71.963977902973</v>
+        <v>103.5919958860563</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="C13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="D13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="E13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="F13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="G13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="H13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="I13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="J13" t="n">
-        <v>30.86400121666579</v>
+        <v>4.962973278552937</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="M13" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>103.5919958860564</v>
+        <v>25.90102793811414</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="R13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="S13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="T13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="U13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="V13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="W13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="X13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="C14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="D14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="E14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="F14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="G14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="H14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="I14" t="n">
         <v>103.0173777174683</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="T14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="U14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="V14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="W14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="X14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>75.91603084148863</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.04962311002271</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>4.613779606907086</v>
       </c>
       <c r="S15" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28466,13 +28466,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>103.5919958860563</v>
       </c>
     </row>
     <row r="16">
@@ -28482,40 +28482,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="C16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="D16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="E16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="F16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="G16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="H16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="I16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="J16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="M16" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28524,34 +28524,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>30.86400121666719</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.86400121666555</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="S16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="T16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="U16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="V16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="W16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="X16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.5919958860564</v>
+        <v>103.5919958860563</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="C17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="D17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="E17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="F17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="G17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="H17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="I17" t="n">
         <v>103.0173777174683</v>
@@ -28615,22 +28615,22 @@
         <v>145.5038037448909</v>
       </c>
       <c r="T17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="U17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="V17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="W17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="X17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="Y17" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
     </row>
     <row r="18">
@@ -28652,10 +28652,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.852164523588</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>97.83211742750971</v>
@@ -28691,10 +28691,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2.396788789315764</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T18" t="n">
-        <v>182.9006924107202</v>
+        <v>32.09848340535601</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -28737,7 +28737,7 @@
         <v>166.7406794031812</v>
       </c>
       <c r="H19" t="n">
-        <v>83.91344241650631</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.0753588426008</v>
+        <v>50.80921976162514</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>182.9006924107202</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="X19" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="C20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="D20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="E20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="F20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="G20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="H20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="I20" t="n">
         <v>103.0173777174683</v>
@@ -28852,22 +28852,22 @@
         <v>145.5038037448909</v>
       </c>
       <c r="T20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="U20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="V20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="W20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="X20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="Y20" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
     </row>
     <row r="21">
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>100.1993302028811</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H21" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.04962311002271</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,10 +28928,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T21" t="n">
-        <v>182.9006924107202</v>
+        <v>139.1476487026611</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28959,25 +28959,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>49.60416184638862</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7406794031812</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>151.1108692686995</v>
       </c>
       <c r="I22" t="n">
-        <v>117.8505453630947</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S22" t="n">
-        <v>182.9006924107202</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="U22" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="V22" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="W22" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="X22" t="n">
-        <v>94.34759213740114</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>182.9006924107201</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="C23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="D23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="E23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="F23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="G23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="H23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="I23" t="n">
         <v>103.0173777174683</v>
@@ -29089,22 +29089,22 @@
         <v>145.5038037448909</v>
       </c>
       <c r="T23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="U23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="V23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="W23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="X23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="Y23" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
     </row>
     <row r="24">
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>69.5345401442441</v>
+        <v>116.5534920174295</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.04962311002271</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>143.9819499248829</v>
       </c>
       <c r="T24" t="n">
-        <v>182.9006924107202</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29196,28 +29196,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>53.79923552082926</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7406794031812</v>
+        <v>23.25501413748154</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>117.8505453630947</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.962973278552937</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S25" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="T25" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="U25" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="V25" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="W25" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="X25" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="Y25" t="n">
-        <v>182.9006924107202</v>
+        <v>182.9006924107201</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="C26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="D26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="E26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="F26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="G26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="H26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="I26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="T26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="U26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="V26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="W26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="X26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="C28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="D28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="E28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="F28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="G28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="H28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="I28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="J28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="K28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246633</v>
       </c>
       <c r="L28" t="n">
-        <v>79.30869652466075</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="M28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="N28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="O28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="P28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="R28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="S28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="T28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="U28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="V28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="W28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="X28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466379</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="K31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="L31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="M31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="N31" t="n">
-        <v>79.30869652466089</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="O31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="P31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="R31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="S31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.30869652466389</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="32">
@@ -29943,7 +29943,7 @@
         <v>79.3086965246638</v>
       </c>
       <c r="O34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466319</v>
       </c>
       <c r="P34" t="n">
         <v>79.3086965246638</v>
@@ -30144,7 +30144,7 @@
         <v>152.4070629891936</v>
       </c>
       <c r="C37" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30156,7 +30156,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>151.1108692686995</v>
@@ -30192,22 +30192,22 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.9319001761777</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="V37" t="n">
-        <v>145.9319001761779</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="W37" t="n">
         <v>152.4070629891936</v>
       </c>
       <c r="X37" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>152.4070629891936</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.9319001761781</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30393,7 +30393,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="H40" t="n">
         <v>151.1108692686995</v>
@@ -30429,16 +30429,16 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S40" t="n">
-        <v>152.4070629891936</v>
+        <v>145.9319001761777</v>
       </c>
       <c r="T40" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>152.4070629891936</v>
@@ -30447,7 +30447,7 @@
         <v>152.4070629891936</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
     </row>
     <row r="41">
@@ -30627,10 +30627,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>152.4070629891936</v>
+        <v>138.9458852099154</v>
       </c>
       <c r="H43" t="n">
         <v>151.1108692686995</v>
@@ -30669,19 +30669,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>152.4070629891936</v>
       </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="W43" t="n">
         <v>152.4070629891936</v>
       </c>
       <c r="X43" t="n">
-        <v>145.9319001761778</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="Y43" t="n">
         <v>152.4070629891936</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30867,13 +30867,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.931900176178</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="H46" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>117.8505453630947</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30909,16 +30909,16 @@
         <v>152.4070629891936</v>
       </c>
       <c r="U46" t="n">
-        <v>152.4070629891936</v>
+        <v>110.0791888295847</v>
       </c>
       <c r="V46" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>152.4070629891936</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="Y46" t="n">
         <v>152.4070629891936</v>
@@ -31753,7 +31753,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H11" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I11" t="n">
         <v>107.4585118529376</v>
@@ -31765,19 +31765,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L11" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M11" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N11" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O11" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P11" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q11" t="n">
         <v>301.0002041854332</v>
@@ -31786,7 +31786,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S11" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T11" t="n">
         <v>12.20153389887126</v>
@@ -31835,7 +31835,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I12" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J12" t="n">
         <v>140.9001193425902</v>
@@ -31859,19 +31859,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R12" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S12" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T12" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,13 +31914,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I13" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J13" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K13" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L13" t="n">
         <v>185.8855042600761</v>
@@ -31932,7 +31932,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O13" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P13" t="n">
         <v>151.2180964091997</v>
@@ -31941,7 +31941,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R13" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S13" t="n">
         <v>21.78931831151802</v>
@@ -31950,7 +31950,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H14" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I14" t="n">
         <v>107.4585118529376</v>
@@ -32002,19 +32002,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L14" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M14" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N14" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O14" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P14" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q14" t="n">
         <v>301.0002041854332</v>
@@ -32023,7 +32023,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S14" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T14" t="n">
         <v>12.20153389887126</v>
@@ -32072,7 +32072,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I15" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J15" t="n">
         <v>140.9001193425902</v>
@@ -32096,19 +32096,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R15" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S15" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T15" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,13 +32151,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I16" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J16" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K16" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L16" t="n">
         <v>185.8855042600761</v>
@@ -32169,7 +32169,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O16" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P16" t="n">
         <v>151.2180964091997</v>
@@ -32178,7 +32178,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R16" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S16" t="n">
         <v>21.78931831151802</v>
@@ -32187,7 +32187,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H17" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I17" t="n">
         <v>107.4585118529376</v>
@@ -32239,19 +32239,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L17" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M17" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N17" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O17" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P17" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q17" t="n">
         <v>301.0002041854332</v>
@@ -32260,7 +32260,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S17" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T17" t="n">
         <v>12.20153389887126</v>
@@ -32309,7 +32309,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I18" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J18" t="n">
         <v>140.9001193425902</v>
@@ -32333,19 +32333,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q18" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R18" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S18" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T18" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,13 +32388,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I19" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J19" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K19" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L19" t="n">
         <v>185.8855042600761</v>
@@ -32406,7 +32406,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O19" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P19" t="n">
         <v>151.2180964091997</v>
@@ -32415,7 +32415,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R19" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S19" t="n">
         <v>21.78931831151802</v>
@@ -32424,7 +32424,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H20" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I20" t="n">
         <v>107.4585118529376</v>
@@ -32476,19 +32476,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L20" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M20" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N20" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O20" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P20" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q20" t="n">
         <v>301.0002041854332</v>
@@ -32497,7 +32497,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S20" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T20" t="n">
         <v>12.20153389887126</v>
@@ -32546,7 +32546,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I21" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J21" t="n">
         <v>140.9001193425902</v>
@@ -32570,19 +32570,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q21" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R21" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S21" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T21" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,13 +32625,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I22" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J22" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K22" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L22" t="n">
         <v>185.8855042600761</v>
@@ -32643,7 +32643,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O22" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P22" t="n">
         <v>151.2180964091997</v>
@@ -32652,7 +32652,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R22" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S22" t="n">
         <v>21.78931831151802</v>
@@ -32661,7 +32661,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H23" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I23" t="n">
         <v>107.4585118529376</v>
@@ -32713,19 +32713,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L23" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M23" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N23" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O23" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P23" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q23" t="n">
         <v>301.0002041854332</v>
@@ -32734,7 +32734,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S23" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T23" t="n">
         <v>12.20153389887126</v>
@@ -32783,7 +32783,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I24" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J24" t="n">
         <v>140.9001193425902</v>
@@ -32807,19 +32807,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q24" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R24" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S24" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T24" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,13 +32862,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I25" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J25" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K25" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L25" t="n">
         <v>185.8855042600761</v>
@@ -32880,7 +32880,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O25" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P25" t="n">
         <v>151.2180964091997</v>
@@ -32889,7 +32889,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R25" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S25" t="n">
         <v>21.78931831151802</v>
@@ -32898,7 +32898,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H26" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I26" t="n">
         <v>107.4585118529376</v>
@@ -32950,19 +32950,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L26" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M26" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N26" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O26" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P26" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q26" t="n">
         <v>301.0002041854332</v>
@@ -32971,7 +32971,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S26" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T26" t="n">
         <v>12.20153389887126</v>
@@ -33020,7 +33020,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I27" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J27" t="n">
         <v>140.9001193425902</v>
@@ -33044,19 +33044,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q27" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R27" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S27" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T27" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,13 +33099,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I28" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J28" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K28" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L28" t="n">
         <v>185.8855042600761</v>
@@ -33117,7 +33117,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O28" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P28" t="n">
         <v>151.2180964091997</v>
@@ -33126,7 +33126,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R28" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S28" t="n">
         <v>21.78931831151802</v>
@@ -33135,7 +33135,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H29" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I29" t="n">
         <v>107.4585118529376</v>
@@ -33187,19 +33187,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L29" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M29" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N29" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O29" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P29" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q29" t="n">
         <v>301.0002041854332</v>
@@ -33208,7 +33208,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S29" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T29" t="n">
         <v>12.20153389887126</v>
@@ -33257,7 +33257,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I30" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J30" t="n">
         <v>140.9001193425902</v>
@@ -33281,19 +33281,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q30" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R30" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S30" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T30" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,13 +33336,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I31" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J31" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K31" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L31" t="n">
         <v>185.8855042600761</v>
@@ -33354,7 +33354,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O31" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P31" t="n">
         <v>151.2180964091997</v>
@@ -33363,7 +33363,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R31" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S31" t="n">
         <v>21.78931831151802</v>
@@ -33372,7 +33372,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H32" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I32" t="n">
         <v>107.4585118529376</v>
@@ -33424,19 +33424,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L32" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M32" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N32" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O32" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P32" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q32" t="n">
         <v>301.0002041854332</v>
@@ -33445,7 +33445,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S32" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T32" t="n">
         <v>12.20153389887126</v>
@@ -33494,7 +33494,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I33" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J33" t="n">
         <v>140.9001193425902</v>
@@ -33518,19 +33518,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q33" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R33" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S33" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T33" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,13 +33573,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I34" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J34" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K34" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L34" t="n">
         <v>185.8855042600761</v>
@@ -33591,7 +33591,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O34" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P34" t="n">
         <v>151.2180964091997</v>
@@ -33600,7 +33600,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R34" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S34" t="n">
         <v>21.78931831151802</v>
@@ -33609,7 +33609,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H35" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I35" t="n">
         <v>107.4585118529376</v>
@@ -33661,19 +33661,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L35" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M35" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N35" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O35" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P35" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q35" t="n">
         <v>301.0002041854332</v>
@@ -33682,7 +33682,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S35" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T35" t="n">
         <v>12.20153389887126</v>
@@ -33731,7 +33731,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I36" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J36" t="n">
         <v>140.9001193425902</v>
@@ -33755,19 +33755,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q36" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R36" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S36" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T36" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,13 +33810,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I37" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J37" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K37" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L37" t="n">
         <v>185.8855042600761</v>
@@ -33828,7 +33828,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O37" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P37" t="n">
         <v>151.2180964091997</v>
@@ -33837,7 +33837,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R37" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S37" t="n">
         <v>21.78931831151802</v>
@@ -33846,7 +33846,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H38" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I38" t="n">
         <v>107.4585118529376</v>
@@ -33898,19 +33898,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L38" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M38" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N38" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O38" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P38" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q38" t="n">
         <v>301.0002041854332</v>
@@ -33919,7 +33919,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S38" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T38" t="n">
         <v>12.20153389887126</v>
@@ -33968,7 +33968,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I39" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J39" t="n">
         <v>140.9001193425902</v>
@@ -33992,19 +33992,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q39" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R39" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S39" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T39" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,13 +34047,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I40" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J40" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K40" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L40" t="n">
         <v>185.8855042600761</v>
@@ -34065,7 +34065,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O40" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P40" t="n">
         <v>151.2180964091997</v>
@@ -34074,7 +34074,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R40" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S40" t="n">
         <v>21.78931831151802</v>
@@ -34083,7 +34083,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H41" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I41" t="n">
         <v>107.4585118529376</v>
@@ -34135,19 +34135,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L41" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M41" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N41" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O41" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P41" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q41" t="n">
         <v>301.0002041854332</v>
@@ -34156,7 +34156,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S41" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T41" t="n">
         <v>12.20153389887126</v>
@@ -34205,7 +34205,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I42" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J42" t="n">
         <v>140.9001193425902</v>
@@ -34229,19 +34229,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q42" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R42" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S42" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T42" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,13 +34284,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I43" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J43" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K43" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L43" t="n">
         <v>185.8855042600761</v>
@@ -34302,7 +34302,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O43" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P43" t="n">
         <v>151.2180964091997</v>
@@ -34311,7 +34311,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R43" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S43" t="n">
         <v>21.78931831151802</v>
@@ -34320,7 +34320,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>2.787329274442319</v>
       </c>
       <c r="H44" t="n">
-        <v>28.5457359318824</v>
+        <v>28.54573593188241</v>
       </c>
       <c r="I44" t="n">
         <v>107.4585118529376</v>
@@ -34372,19 +34372,19 @@
         <v>354.5587361938424</v>
       </c>
       <c r="L44" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765567</v>
       </c>
       <c r="M44" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609203</v>
       </c>
       <c r="N44" t="n">
-        <v>497.3501307619294</v>
+        <v>497.3501307619296</v>
       </c>
       <c r="O44" t="n">
-        <v>469.6336252891936</v>
+        <v>469.6336252891937</v>
       </c>
       <c r="P44" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263989</v>
       </c>
       <c r="Q44" t="n">
         <v>301.0002041854332</v>
@@ -34393,7 +34393,7 @@
         <v>175.0895725356875</v>
       </c>
       <c r="S44" t="n">
-        <v>63.5162658413544</v>
+        <v>63.51626584135442</v>
       </c>
       <c r="T44" t="n">
         <v>12.20153389887126</v>
@@ -34442,7 +34442,7 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I45" t="n">
-        <v>51.34700974139236</v>
+        <v>51.34700974139237</v>
       </c>
       <c r="J45" t="n">
         <v>140.9001193425902</v>
@@ -34466,19 +34466,19 @@
         <v>284.7829439644256</v>
       </c>
       <c r="Q45" t="n">
-        <v>190.3698562437558</v>
+        <v>190.3698562437559</v>
       </c>
       <c r="R45" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358606</v>
       </c>
       <c r="S45" t="n">
         <v>27.70122117895497</v>
       </c>
       <c r="T45" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934977</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.0981153052383294</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,13 +34521,13 @@
         <v>11.11630323874004</v>
       </c>
       <c r="I46" t="n">
-        <v>37.59992956416362</v>
+        <v>37.59992956416363</v>
       </c>
       <c r="J46" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811984</v>
       </c>
       <c r="K46" t="n">
-        <v>145.2621220767868</v>
+        <v>145.2621220767869</v>
       </c>
       <c r="L46" t="n">
         <v>185.8855042600761</v>
@@ -34539,7 +34539,7 @@
         <v>191.3299922471483</v>
       </c>
       <c r="O46" t="n">
-        <v>176.7242154968609</v>
+        <v>176.724215496861</v>
       </c>
       <c r="P46" t="n">
         <v>151.2180964091997</v>
@@ -34548,7 +34548,7 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R46" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456868</v>
       </c>
       <c r="S46" t="n">
         <v>21.78931831151802</v>
@@ -34557,7 +34557,7 @@
         <v>5.342190718003898</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06819817937877325</v>
+        <v>0.06819817937877326</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.52518348001269</v>
+        <v>55.52518348001274</v>
       </c>
       <c r="K11" t="n">
-        <v>134.4688851488618</v>
+        <v>134.4688851488619</v>
       </c>
       <c r="L11" t="n">
-        <v>204.0950495065694</v>
+        <v>204.0950495065695</v>
       </c>
       <c r="M11" t="n">
-        <v>259.0843982336474</v>
+        <v>259.0843982336476</v>
       </c>
       <c r="N11" t="n">
-        <v>267.9370671653385</v>
+        <v>267.9370671653386</v>
       </c>
       <c r="O11" t="n">
         <v>239.5354138675069</v>
       </c>
       <c r="P11" t="n">
-        <v>169.5884380711292</v>
+        <v>169.5884380711294</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.69451431098369</v>
+        <v>78.69451431098375</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K12" t="n">
         <v>102.9793072229458</v>
@@ -35501,13 +35501,13 @@
         <v>256.5342536051795</v>
       </c>
       <c r="O12" t="n">
-        <v>355.8264439505635</v>
+        <v>212.2344864397991</v>
       </c>
       <c r="P12" t="n">
-        <v>150.8085365500953</v>
+        <v>150.8085365500954</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.718371518449</v>
+        <v>125.2192936888058</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.90102793811284</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>122.992630250904</v>
       </c>
       <c r="L13" t="n">
-        <v>213.4755295203923</v>
+        <v>317.0675254064486</v>
       </c>
       <c r="M13" t="n">
-        <v>339.1660740192613</v>
+        <v>235.5740781332049</v>
       </c>
       <c r="N13" t="n">
         <v>235.4621646263769</v>
       </c>
       <c r="O13" t="n">
-        <v>304.901339296957</v>
+        <v>227.2103713490148</v>
       </c>
       <c r="P13" t="n">
-        <v>148.4966556740931</v>
+        <v>148.4966556740932</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.53352845795224</v>
+        <v>122.1255243440086</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>224.6217986520865</v>
       </c>
       <c r="K14" t="n">
-        <v>134.4688851488618</v>
+        <v>458.6142977200266</v>
       </c>
       <c r="L14" t="n">
-        <v>204.0950495065694</v>
+        <v>204.0950495065695</v>
       </c>
       <c r="M14" t="n">
-        <v>259.0843982336474</v>
+        <v>259.0843982336476</v>
       </c>
       <c r="N14" t="n">
-        <v>267.9370671653385</v>
+        <v>267.9370671653386</v>
       </c>
       <c r="O14" t="n">
-        <v>254.6563934104487</v>
+        <v>464.6246796706719</v>
       </c>
       <c r="P14" t="n">
-        <v>491.3871462426119</v>
+        <v>169.5884380711294</v>
       </c>
       <c r="Q14" t="n">
-        <v>291.0095049708884</v>
+        <v>78.69451431098375</v>
       </c>
       <c r="R14" t="n">
-        <v>25.22045459453778</v>
+        <v>25.22045459453781</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>140.1535280163323</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K15" t="n">
         <v>367.4445442355244</v>
       </c>
       <c r="L15" t="n">
-        <v>185.2588326083588</v>
+        <v>420.7137866278558</v>
       </c>
       <c r="M15" t="n">
         <v>235.7407116525341</v>
@@ -35738,13 +35738,13 @@
         <v>256.5342536051795</v>
       </c>
       <c r="O15" t="n">
-        <v>237.6121527234456</v>
+        <v>212.2344864397991</v>
       </c>
       <c r="P15" t="n">
         <v>469.2713051900325</v>
       </c>
       <c r="Q15" t="n">
-        <v>260.4653698935834</v>
+        <v>50.38808215773435</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>98.62902260750343</v>
+        <v>98.62902260750336</v>
       </c>
       <c r="K16" t="n">
         <v>122.992630250904</v>
       </c>
       <c r="L16" t="n">
-        <v>213.4755295203923</v>
+        <v>317.0675254064486</v>
       </c>
       <c r="M16" t="n">
-        <v>339.1660740192613</v>
+        <v>235.5740781332049</v>
       </c>
       <c r="N16" t="n">
         <v>235.4621646263769</v>
       </c>
       <c r="O16" t="n">
-        <v>201.3093434109006</v>
+        <v>201.3093434109007</v>
       </c>
       <c r="P16" t="n">
-        <v>148.4966556740931</v>
+        <v>179.3606568907604</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.39752967461779</v>
+        <v>18.53352845795226</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>224.6217986520865</v>
       </c>
       <c r="K17" t="n">
-        <v>149.5898646918036</v>
+        <v>458.6142977200266</v>
       </c>
       <c r="L17" t="n">
-        <v>204.0950495065694</v>
+        <v>216.86932464983</v>
       </c>
       <c r="M17" t="n">
-        <v>259.0843982336474</v>
+        <v>259.0843982336476</v>
       </c>
       <c r="N17" t="n">
-        <v>267.9370671653385</v>
+        <v>267.9370671653386</v>
       </c>
       <c r="O17" t="n">
         <v>239.5354138675069</v>
       </c>
       <c r="P17" t="n">
-        <v>491.3871462426119</v>
+        <v>169.5884380711294</v>
       </c>
       <c r="Q17" t="n">
         <v>291.0095049708884</v>
       </c>
       <c r="R17" t="n">
-        <v>25.22045459453778</v>
+        <v>25.22045459453781</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>140.1535280163323</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K18" t="n">
-        <v>116.3375510771584</v>
+        <v>367.4445442355244</v>
       </c>
       <c r="L18" t="n">
         <v>185.2588326083588</v>
       </c>
       <c r="M18" t="n">
-        <v>543.6111966698318</v>
+        <v>235.7407116525341</v>
       </c>
       <c r="N18" t="n">
-        <v>543.6111966698318</v>
+        <v>256.5342536051795</v>
       </c>
       <c r="O18" t="n">
-        <v>212.234486439799</v>
+        <v>237.6121527234469</v>
       </c>
       <c r="P18" t="n">
-        <v>150.8085365500953</v>
+        <v>469.2713051900325</v>
       </c>
       <c r="Q18" t="n">
         <v>260.4653698935834</v>
@@ -36054,13 +36054,13 @@
         <v>235.4621646263769</v>
       </c>
       <c r="O19" t="n">
-        <v>201.3093434109006</v>
+        <v>201.3093434109007</v>
       </c>
       <c r="P19" t="n">
-        <v>148.4966556740931</v>
+        <v>148.4966556740932</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795226</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>224.6217986520865</v>
       </c>
       <c r="K20" t="n">
-        <v>174.8103192863414</v>
+        <v>174.8103192863423</v>
       </c>
       <c r="L20" t="n">
-        <v>204.0950495065694</v>
+        <v>204.0950495065695</v>
       </c>
       <c r="M20" t="n">
-        <v>259.0843982336474</v>
+        <v>259.0843982336476</v>
       </c>
       <c r="N20" t="n">
-        <v>267.9370671653385</v>
+        <v>267.9370671653386</v>
       </c>
       <c r="O20" t="n">
         <v>239.5354138675069</v>
       </c>
       <c r="P20" t="n">
-        <v>491.3871462426119</v>
+        <v>491.387146242612</v>
       </c>
       <c r="Q20" t="n">
         <v>291.0095049708884</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>140.1535280163323</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K21" t="n">
         <v>367.4445442355244</v>
@@ -36212,7 +36212,7 @@
         <v>256.5342536051795</v>
       </c>
       <c r="O21" t="n">
-        <v>237.6121527234456</v>
+        <v>237.6121527234469</v>
       </c>
       <c r="P21" t="n">
         <v>469.2713051900325</v>
@@ -36291,13 +36291,13 @@
         <v>235.4621646263769</v>
       </c>
       <c r="O22" t="n">
-        <v>201.3093434109006</v>
+        <v>201.3093434109007</v>
       </c>
       <c r="P22" t="n">
-        <v>148.4966556740931</v>
+        <v>148.4966556740932</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795226</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>224.6217986520865</v>
       </c>
       <c r="K23" t="n">
-        <v>134.4688851488618</v>
+        <v>134.4688851488619</v>
       </c>
       <c r="L23" t="n">
-        <v>204.0950495065694</v>
+        <v>204.0950495065695</v>
       </c>
       <c r="M23" t="n">
-        <v>549.4256113965084</v>
+        <v>259.0843982336476</v>
       </c>
       <c r="N23" t="n">
-        <v>362.7587293706042</v>
+        <v>267.9370671653386</v>
       </c>
       <c r="O23" t="n">
-        <v>239.5354138675069</v>
+        <v>277.6791264696146</v>
       </c>
       <c r="P23" t="n">
-        <v>169.5884380711292</v>
+        <v>491.387146242612</v>
       </c>
       <c r="Q23" t="n">
         <v>291.0095049708884</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>25.22045459453781</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>140.1535280163323</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K24" t="n">
         <v>367.4445442355244</v>
       </c>
       <c r="L24" t="n">
-        <v>233.6592319511697</v>
+        <v>185.2588326083588</v>
       </c>
       <c r="M24" t="n">
         <v>235.7407116525341</v>
@@ -36449,7 +36449,7 @@
         <v>256.5342536051795</v>
       </c>
       <c r="O24" t="n">
-        <v>212.234486439799</v>
+        <v>260.6348857826119</v>
       </c>
       <c r="P24" t="n">
         <v>469.2713051900325</v>
@@ -36528,13 +36528,13 @@
         <v>235.4621646263769</v>
       </c>
       <c r="O25" t="n">
-        <v>201.3093434109006</v>
+        <v>201.3093434109007</v>
       </c>
       <c r="P25" t="n">
-        <v>148.4966556740931</v>
+        <v>148.4966556740932</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795226</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.52518348001269</v>
+        <v>55.52518348001274</v>
       </c>
       <c r="K26" t="n">
         <v>458.6142977200266</v>
       </c>
       <c r="L26" t="n">
-        <v>621.7562640570197</v>
+        <v>621.75626405702</v>
       </c>
       <c r="M26" t="n">
-        <v>397.3599764579596</v>
+        <v>708.5979317264801</v>
       </c>
       <c r="N26" t="n">
-        <v>705.2839915773227</v>
+        <v>705.2839915773228</v>
       </c>
       <c r="O26" t="n">
         <v>620.3355951302523</v>
       </c>
       <c r="P26" t="n">
-        <v>491.3871462426119</v>
+        <v>392.464181633997</v>
       </c>
       <c r="Q26" t="n">
-        <v>291.0095049708884</v>
+        <v>78.69451431098375</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>140.1535280163323</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K27" t="n">
         <v>367.4445442355244</v>
       </c>
       <c r="L27" t="n">
-        <v>556.0991779118179</v>
+        <v>185.2588326083588</v>
       </c>
       <c r="M27" t="n">
-        <v>317.7668227063201</v>
+        <v>294.7448487330494</v>
       </c>
       <c r="N27" t="n">
         <v>256.5342536051795</v>
       </c>
       <c r="O27" t="n">
-        <v>212.234486439799</v>
+        <v>606.0968057165286</v>
       </c>
       <c r="P27" t="n">
         <v>469.2713051900325</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.34572324611094</v>
+        <v>74.34572324611085</v>
       </c>
       <c r="K28" t="n">
-        <v>202.3013267755679</v>
+        <v>202.3013267755673</v>
       </c>
       <c r="L28" t="n">
-        <v>292.784226045053</v>
+        <v>292.7842260450561</v>
       </c>
       <c r="M28" t="n">
-        <v>314.8827746578688</v>
+        <v>314.8827746578687</v>
       </c>
       <c r="N28" t="n">
-        <v>314.7708611510408</v>
+        <v>314.7708611510407</v>
       </c>
       <c r="O28" t="n">
-        <v>280.6180399355645</v>
+        <v>280.6180399355644</v>
       </c>
       <c r="P28" t="n">
         <v>227.805352198757</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.84222498261613</v>
+        <v>97.84222498261605</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>224.6217986520865</v>
+        <v>55.52518348001274</v>
       </c>
       <c r="K29" t="n">
         <v>458.6142977200266</v>
       </c>
       <c r="L29" t="n">
-        <v>621.7562640570197</v>
+        <v>621.75626405702</v>
       </c>
       <c r="M29" t="n">
-        <v>259.0843982336474</v>
+        <v>708.5979317264801</v>
       </c>
       <c r="N29" t="n">
-        <v>674.4629546295611</v>
+        <v>705.2839915773228</v>
       </c>
       <c r="O29" t="n">
         <v>620.3355951302523</v>
       </c>
       <c r="P29" t="n">
-        <v>491.3871462426119</v>
+        <v>392.464181633997</v>
       </c>
       <c r="Q29" t="n">
-        <v>291.0095049708884</v>
+        <v>78.69451431098375</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>140.1535280163323</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K30" t="n">
         <v>367.4445442355244</v>
       </c>
       <c r="L30" t="n">
-        <v>556.0991779118179</v>
+        <v>556.0991779118181</v>
       </c>
       <c r="M30" t="n">
-        <v>317.7668227063201</v>
+        <v>235.7407116525341</v>
       </c>
       <c r="N30" t="n">
         <v>256.5342536051795</v>
       </c>
       <c r="O30" t="n">
-        <v>212.234486439799</v>
+        <v>294.2605974935847</v>
       </c>
       <c r="P30" t="n">
         <v>469.2713051900325</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.34572324611094</v>
+        <v>74.34572324611086</v>
       </c>
       <c r="K31" t="n">
-        <v>202.3013267755679</v>
+        <v>202.3013267755678</v>
       </c>
       <c r="L31" t="n">
         <v>292.7842260450561</v>
       </c>
       <c r="M31" t="n">
-        <v>314.8827746578688</v>
+        <v>314.8827746578687</v>
       </c>
       <c r="N31" t="n">
-        <v>314.7708611510378</v>
+        <v>314.7708611510407</v>
       </c>
       <c r="O31" t="n">
         <v>280.6180399355645</v>
@@ -37008,7 +37008,7 @@
         <v>227.805352198757</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.84222498261613</v>
+        <v>97.84222498261606</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.6217986520865</v>
+        <v>193.8007617043253</v>
       </c>
       <c r="K32" t="n">
         <v>458.6142977200266</v>
       </c>
       <c r="L32" t="n">
-        <v>621.7562640570197</v>
+        <v>621.75626405702</v>
       </c>
       <c r="M32" t="n">
-        <v>640.3898311033322</v>
+        <v>259.0843982336476</v>
       </c>
       <c r="N32" t="n">
-        <v>267.9370671653385</v>
+        <v>705.2839915773228</v>
       </c>
       <c r="O32" t="n">
         <v>620.3355951302523</v>
       </c>
       <c r="P32" t="n">
-        <v>491.3871462426119</v>
+        <v>491.387146242612</v>
       </c>
       <c r="Q32" t="n">
         <v>291.0095049708884</v>
       </c>
       <c r="R32" t="n">
-        <v>25.22045459453778</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>140.1535280163323</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K33" t="n">
         <v>367.4445442355244</v>
       </c>
       <c r="L33" t="n">
-        <v>556.0991779118179</v>
+        <v>556.0991779118181</v>
       </c>
       <c r="M33" t="n">
-        <v>317.7668227063201</v>
+        <v>235.7407116525341</v>
       </c>
       <c r="N33" t="n">
         <v>256.5342536051795</v>
       </c>
       <c r="O33" t="n">
-        <v>212.234486439799</v>
+        <v>294.2605974935847</v>
       </c>
       <c r="P33" t="n">
         <v>469.2713051900325</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.34572324611085</v>
+        <v>74.34572324611086</v>
       </c>
       <c r="K34" t="n">
         <v>202.3013267755678</v>
@@ -37239,13 +37239,13 @@
         <v>314.7708611510407</v>
       </c>
       <c r="O34" t="n">
-        <v>280.6180399355644</v>
+        <v>280.6180399355638</v>
       </c>
       <c r="P34" t="n">
         <v>227.805352198757</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.84222498261605</v>
+        <v>97.84222498261606</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>224.6217986520865</v>
       </c>
       <c r="K35" t="n">
-        <v>134.4688851488618</v>
+        <v>458.6142977200266</v>
       </c>
       <c r="L35" t="n">
-        <v>204.0950495065694</v>
+        <v>204.0950495065695</v>
       </c>
       <c r="M35" t="n">
-        <v>651.5739268159701</v>
+        <v>259.0843982336476</v>
       </c>
       <c r="N35" t="n">
-        <v>651.5739268159701</v>
+        <v>267.9370671653386</v>
       </c>
       <c r="O35" t="n">
-        <v>239.5354138675069</v>
+        <v>357.9997709128821</v>
       </c>
       <c r="P35" t="n">
-        <v>183.0909822207357</v>
+        <v>491.387146242612</v>
       </c>
       <c r="Q35" t="n">
         <v>291.0095049708884</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>25.22045459453781</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K36" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355244</v>
       </c>
       <c r="L36" t="n">
-        <v>352.4864100434214</v>
+        <v>556.0991779118181</v>
       </c>
       <c r="M36" t="n">
-        <v>651.5739268159701</v>
+        <v>242.3672720695276</v>
       </c>
       <c r="N36" t="n">
-        <v>651.5739268159701</v>
+        <v>256.5342536051795</v>
       </c>
       <c r="O36" t="n">
-        <v>606.0968057165285</v>
+        <v>606.0968057165286</v>
       </c>
       <c r="P36" t="n">
-        <v>150.8085365500953</v>
+        <v>150.8085365500954</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.38808215773432</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>235.4621646263769</v>
       </c>
       <c r="O37" t="n">
-        <v>201.3093434109006</v>
+        <v>201.3093434109007</v>
       </c>
       <c r="P37" t="n">
-        <v>148.4966556740931</v>
+        <v>148.4966556740932</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795226</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.52518348001269</v>
+        <v>55.52518348001274</v>
       </c>
       <c r="K38" t="n">
-        <v>458.6142977200266</v>
+        <v>134.4688851488619</v>
       </c>
       <c r="L38" t="n">
-        <v>204.0950495065694</v>
+        <v>621.75626405702</v>
       </c>
       <c r="M38" t="n">
-        <v>510.0276735664857</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="N38" t="n">
-        <v>651.5739268159701</v>
+        <v>267.9370671653386</v>
       </c>
       <c r="O38" t="n">
-        <v>239.5354138675069</v>
+        <v>600.4252089492724</v>
       </c>
       <c r="P38" t="n">
-        <v>169.5884380711292</v>
+        <v>169.5884380711294</v>
       </c>
       <c r="Q38" t="n">
-        <v>291.0095049708884</v>
+        <v>78.69451431098375</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K39" t="n">
         <v>102.9793072229458</v>
       </c>
       <c r="L39" t="n">
-        <v>352.4864100434214</v>
+        <v>556.0991779118181</v>
       </c>
       <c r="M39" t="n">
-        <v>651.5739268159701</v>
+        <v>235.7407116525341</v>
       </c>
       <c r="N39" t="n">
-        <v>651.5739268159701</v>
+        <v>256.5342536051795</v>
       </c>
       <c r="O39" t="n">
-        <v>606.0968057165285</v>
+        <v>606.0968057165286</v>
       </c>
       <c r="P39" t="n">
-        <v>150.8085365500953</v>
+        <v>469.2713051900325</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.38808215773432</v>
+        <v>213.0943986832179</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>235.4621646263769</v>
       </c>
       <c r="O40" t="n">
-        <v>201.3093434109006</v>
+        <v>201.3093434109007</v>
       </c>
       <c r="P40" t="n">
-        <v>148.4966556740931</v>
+        <v>148.4966556740932</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795226</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.52518348001269</v>
+        <v>55.52518348001274</v>
       </c>
       <c r="K41" t="n">
-        <v>390.5955432692682</v>
+        <v>134.4688851488619</v>
       </c>
       <c r="L41" t="n">
-        <v>204.0950495065694</v>
+        <v>621.75626405702</v>
       </c>
       <c r="M41" t="n">
-        <v>259.0843982336474</v>
+        <v>651.5739268159704</v>
       </c>
       <c r="N41" t="n">
-        <v>267.9370671653385</v>
+        <v>628.8268622471045</v>
       </c>
       <c r="O41" t="n">
-        <v>620.3355951302523</v>
+        <v>239.5354138675069</v>
       </c>
       <c r="P41" t="n">
-        <v>491.3871462426119</v>
+        <v>169.5884380711294</v>
       </c>
       <c r="Q41" t="n">
-        <v>291.0095049708884</v>
+        <v>78.69451431098375</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K42" t="n">
-        <v>102.9793072229458</v>
+        <v>167.1378232908703</v>
       </c>
       <c r="L42" t="n">
-        <v>556.0991779118179</v>
+        <v>556.0991779118181</v>
       </c>
       <c r="M42" t="n">
-        <v>651.5739268159701</v>
+        <v>651.5739268159704</v>
       </c>
       <c r="N42" t="n">
-        <v>447.9611589475737</v>
+        <v>651.5739268159704</v>
       </c>
       <c r="O42" t="n">
-        <v>606.0968057165285</v>
+        <v>212.2344864397991</v>
       </c>
       <c r="P42" t="n">
-        <v>150.8085365500953</v>
+        <v>150.8085365500954</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.38808215773432</v>
+        <v>50.38808215773435</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>235.4621646263769</v>
       </c>
       <c r="O43" t="n">
-        <v>201.3093434109006</v>
+        <v>201.3093434109007</v>
       </c>
       <c r="P43" t="n">
-        <v>148.4966556740931</v>
+        <v>148.4966556740932</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795226</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.52518348001269</v>
+        <v>224.6217986520865</v>
       </c>
       <c r="K44" t="n">
-        <v>134.4688851488618</v>
+        <v>134.4688851488619</v>
       </c>
       <c r="L44" t="n">
-        <v>621.7562640570197</v>
+        <v>204.0950495065695</v>
       </c>
       <c r="M44" t="n">
+        <v>259.0843982336476</v>
+      </c>
+      <c r="N44" t="n">
         <v>651.5739268159701</v>
       </c>
-      <c r="N44" t="n">
-        <v>628.826862247104</v>
-      </c>
       <c r="O44" t="n">
-        <v>239.5354138675069</v>
+        <v>298.5083238334151</v>
       </c>
       <c r="P44" t="n">
-        <v>169.5884380711292</v>
+        <v>491.387146242612</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.69451431098369</v>
+        <v>291.0095049708884</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>25.22045459453781</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163324</v>
       </c>
       <c r="K45" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355244</v>
       </c>
       <c r="L45" t="n">
-        <v>556.0991779118179</v>
+        <v>556.0991779118181</v>
       </c>
       <c r="M45" t="n">
-        <v>651.5739268159701</v>
+        <v>317.7668227063201</v>
       </c>
       <c r="N45" t="n">
-        <v>447.9611589475737</v>
+        <v>256.5342536051795</v>
       </c>
       <c r="O45" t="n">
-        <v>606.0968057165285</v>
+        <v>212.2344864397991</v>
       </c>
       <c r="P45" t="n">
-        <v>150.8085365500953</v>
+        <v>469.2713051900325</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.38808215773432</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,13 +38187,13 @@
         <v>235.4621646263769</v>
       </c>
       <c r="O46" t="n">
-        <v>201.3093434109006</v>
+        <v>201.3093434109007</v>
       </c>
       <c r="P46" t="n">
-        <v>148.4966556740931</v>
+        <v>148.4966556740932</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795226</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
